--- a/Data/MHV-1_Trial-2_Stage-2_Decoded_JYI.xlsx
+++ b/Data/MHV-1_Trial-2_Stage-2_Decoded_JYI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\00_CS_Virus_Testing\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9F9D491-86A5-410E-8878-6A07EBC14904}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB492854-2AFC-428B-9B69-673F6E02A8FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6600" yWindow="6180" windowWidth="21600" windowHeight="9420" xr2:uid="{BE0797FF-F582-CE41-81BB-7C6997E8DDC1}"/>
+    <workbookView xWindow="5445" yWindow="5295" windowWidth="21600" windowHeight="9420" xr2:uid="{BE0797FF-F582-CE41-81BB-7C6997E8DDC1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="53">
   <si>
     <t>N=7</t>
   </si>
@@ -189,58 +189,10 @@
     <t>U</t>
   </si>
   <si>
-    <t>2,3,6,</t>
-  </si>
-  <si>
-    <t>1,2,3,5,6,9,11,</t>
-  </si>
-  <si>
-    <t>2,3,</t>
-  </si>
-  <si>
-    <t>1,2,3,5,6,9,</t>
-  </si>
-  <si>
-    <t>2,5,31,</t>
-  </si>
-  <si>
-    <t>3,4,21,</t>
-  </si>
-  <si>
     <t>1,2,4,5,7,10,11,17,18,19,22,26,28,30,31,</t>
   </si>
   <si>
-    <t>2,3,5,8,20,29,31,</t>
-  </si>
-  <si>
-    <t>4,5,22,</t>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,</t>
-  </si>
-  <si>
-    <t>1,3,6,</t>
-  </si>
-  <si>
-    <t>2,5,</t>
-  </si>
-  <si>
-    <t>3,4,</t>
-  </si>
-  <si>
-    <t>1,2,4,5,7,10,11,18,19,22,26,28,30,31,</t>
-  </si>
-  <si>
-    <t>2,3,5,8,20,31,</t>
-  </si>
-  <si>
-    <t>4,5,</t>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,</t>
-  </si>
-  <si>
-    <t>1,3,</t>
+    <t>1,2,5,7,10,11,17,19,22,26,28,30,31,</t>
   </si>
 </sst>
 </file>
@@ -1375,13 +1327,13 @@
         <v>47</v>
       </c>
       <c r="G3" s="4">
-        <v>3.2519921877210028E-12</v>
+        <v>7.9242840120978409E-12</v>
       </c>
       <c r="H3" s="4">
-        <v>4.2331912914540465E-12</v>
+        <v>1.0667051986190147E-11</v>
       </c>
       <c r="I3" s="4">
-        <v>1.4094912103210506E-8</v>
+        <v>-6.7305480903823006E-11</v>
       </c>
       <c r="J3" s="4">
         <v>0</v>
@@ -1405,13 +1357,13 @@
         <v>47</v>
       </c>
       <c r="R3" s="4">
-        <v>3.8061330351991408E-12</v>
+        <v>7.1387311733955759E-12</v>
       </c>
       <c r="S3" s="4">
-        <v>4.9404024430196838E-12</v>
+        <v>9.3661843122478178E-12</v>
       </c>
       <c r="T3" s="4">
-        <v>9.0314737561599375E-9</v>
+        <v>-2.3932323554332454E-13</v>
       </c>
       <c r="U3" s="4">
         <v>0</v>
@@ -1435,13 +1387,13 @@
         <v>47</v>
       </c>
       <c r="AC3" s="4">
-        <v>1.1156208366473037E-11</v>
+        <v>1.7689371721774846E-11</v>
       </c>
       <c r="AD3" s="4">
-        <v>1.3262724776175528E-11</v>
+        <v>1.9024053612785618E-11</v>
       </c>
       <c r="AE3" s="4">
-        <v>4.5225871741952795E-9</v>
+        <v>-6.0795413506282298E-15</v>
       </c>
       <c r="AF3" s="4">
         <v>0</v>
@@ -1488,13 +1440,13 @@
         <v>47</v>
       </c>
       <c r="G4" s="4">
-        <v>3.2519921837358534E-12</v>
+        <v>7.924284706498491E-12</v>
       </c>
       <c r="H4" s="4">
-        <v>4.233191297382185E-12</v>
+        <v>1.0667053380924387E-11</v>
       </c>
       <c r="I4" s="4">
-        <v>1.4094912103209166E-8</v>
+        <v>3.3676640061889401E-11</v>
       </c>
       <c r="J4" s="4">
         <v>0</v>
@@ -1518,13 +1470,13 @@
         <v>47</v>
       </c>
       <c r="R4" s="4">
-        <v>3.8061330355191046E-12</v>
+        <v>7.1387311742083842E-12</v>
       </c>
       <c r="S4" s="4">
-        <v>4.9404024433142635E-12</v>
+        <v>9.3661843125558909E-12</v>
       </c>
       <c r="T4" s="4">
-        <v>9.0314737561594544E-9</v>
+        <v>8.316567227624466E-14</v>
       </c>
       <c r="U4" s="4">
         <v>0</v>
@@ -1545,16 +1497,16 @@
         <v>2</v>
       </c>
       <c r="AB4" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="AC4" s="4">
-        <v>1.2683314729112891E-10</v>
+        <v>1.5271369949487898E-11</v>
       </c>
       <c r="AD4" s="4">
-        <v>7.1407242550421829E-4</v>
+        <v>1.6098378377697604E-11</v>
       </c>
       <c r="AE4" s="4">
-        <v>9.1642367177313861E-4</v>
+        <v>-4.0536895035676462E-16</v>
       </c>
       <c r="AF4" s="4">
         <v>0</v>
@@ -1601,16 +1553,16 @@
         <v>48</v>
       </c>
       <c r="G5" s="2">
-        <v>0.192678163750023</v>
+        <v>7.0934985815681043E-2</v>
       </c>
       <c r="H5" s="2">
-        <v>0.62599498294337663</v>
+        <v>1.7003677729449087</v>
       </c>
       <c r="I5" s="2">
-        <v>1.3933113516806486</v>
+        <v>1.3933148427489797</v>
       </c>
       <c r="J5" s="2">
-        <v>1.3850814408213963</v>
+        <v>1.3850804714343554</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>14</v>
@@ -1631,16 +1583,16 @@
         <v>48</v>
       </c>
       <c r="R5" s="2">
-        <v>1.4260850055867851E-3</v>
+        <v>5.2501726629638904E-4</v>
       </c>
       <c r="S5" s="2">
-        <v>2.8645240823673172E-3</v>
+        <v>7.7808031859895694E-3</v>
       </c>
       <c r="T5" s="2">
-        <v>8.4953225303106891E-3</v>
+        <v>8.4953807561027345E-3</v>
       </c>
       <c r="U5" s="2">
-        <v>7.6938569718188205E-3</v>
+        <v>7.6938923816729978E-3</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>14</v>
@@ -1661,13 +1613,13 @@
         <v>47</v>
       </c>
       <c r="AC5" s="4">
-        <v>1.1156208373953438E-11</v>
+        <v>1.7689371722065393E-11</v>
       </c>
       <c r="AD5" s="4">
-        <v>1.3262724773842259E-11</v>
+        <v>1.9024053611722277E-11</v>
       </c>
       <c r="AE5" s="4">
-        <v>4.5225871741952216E-9</v>
+        <v>7.0087566781691388E-16</v>
       </c>
       <c r="AF5" s="4">
         <v>0</v>
@@ -1702,13 +1654,13 @@
         <v>47</v>
       </c>
       <c r="G6" s="4">
-        <v>1.6959229958811866E-12</v>
+        <v>3.9433381707997192E-12</v>
       </c>
       <c r="H6" s="4">
-        <v>1.9133785767125378E-12</v>
+        <v>4.6770506226134188E-12</v>
       </c>
       <c r="I6" s="4">
-        <v>7.0277195653330219E-9</v>
+        <v>1.6813579816138316E-11</v>
       </c>
       <c r="J6" s="4">
         <v>0</v>
@@ -1732,13 +1684,13 @@
         <v>47</v>
       </c>
       <c r="R6" s="4">
-        <v>3.8061330356327127E-12</v>
+        <v>7.138731174352417E-12</v>
       </c>
       <c r="S6" s="4">
-        <v>4.9404024431834138E-12</v>
+        <v>9.3661843122419241E-12</v>
       </c>
       <c r="T6" s="4">
-        <v>9.0314737561579655E-9</v>
+        <v>8.3165672274954714E-14</v>
       </c>
       <c r="U6" s="4">
         <v>0</v>
@@ -1762,13 +1714,13 @@
         <v>47</v>
       </c>
       <c r="AC6" s="4">
-        <v>1.1156208374317812E-11</v>
+        <v>1.7689371720320869E-11</v>
       </c>
       <c r="AD6" s="4">
-        <v>1.3262724774949233E-11</v>
+        <v>1.9024053614193479E-11</v>
       </c>
       <c r="AE6" s="4">
-        <v>4.52258717419566E-9</v>
+        <v>7.0087566782501706E-16</v>
       </c>
       <c r="AF6" s="4">
         <v>0</v>
@@ -1806,13 +1758,13 @@
         <v>47</v>
       </c>
       <c r="G7" s="4">
-        <v>3.4299941943911771E-12</v>
+        <v>8.3707088784313541E-12</v>
       </c>
       <c r="H7" s="4">
-        <v>3.8823134778159383E-12</v>
+        <v>9.9395399851656396E-12</v>
       </c>
       <c r="I7" s="4">
-        <v>1.4094911740774976E-8</v>
+        <v>3.3667968718991917E-11</v>
       </c>
       <c r="J7" s="4">
         <v>0</v>
@@ -1824,13 +1776,13 @@
         <v>47</v>
       </c>
       <c r="R7" s="4">
-        <v>2.1310462386622794E-12</v>
+        <v>3.9314720677652235E-12</v>
       </c>
       <c r="S7" s="4">
-        <v>2.206955060455456E-12</v>
+        <v>4.0417088880500391E-12</v>
       </c>
       <c r="T7" s="4">
-        <v>4.5334345236364746E-9</v>
+        <v>2.860234069947083E-14</v>
       </c>
       <c r="U7" s="4">
         <v>0</v>
@@ -1851,16 +1803,16 @@
         <v>5</v>
       </c>
       <c r="AB7" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="AC7" s="4">
-        <v>5.1614741399471818E-10</v>
+        <v>1.4914061751371411E-11</v>
       </c>
       <c r="AD7" s="4">
-        <v>8.8943229689424498E-4</v>
+        <v>1.5404498190528509E-11</v>
       </c>
       <c r="AE7" s="4">
-        <v>1.2767330335212374E-3</v>
+        <v>4.0536895035676462E-16</v>
       </c>
       <c r="AF7" s="4">
         <v>0</v>
@@ -1898,13 +1850,13 @@
         <v>47</v>
       </c>
       <c r="G8" s="4">
-        <v>1.6710800984047328E-12</v>
+        <v>3.9465079475415404E-12</v>
       </c>
       <c r="H8" s="4">
-        <v>1.9490530607717994E-12</v>
+        <v>4.7197175500029834E-12</v>
       </c>
       <c r="I8" s="4">
-        <v>7.0277195461487605E-9</v>
+        <v>1.6824016262860103E-11</v>
       </c>
       <c r="J8" s="4">
         <v>0</v>
@@ -1922,13 +1874,13 @@
         <v>47</v>
       </c>
       <c r="R8" s="4">
-        <v>3.7663119086203955E-12</v>
+        <v>6.5739716355195635E-12</v>
       </c>
       <c r="S8" s="4">
-        <v>5.6101654895390886E-12</v>
+        <v>9.5703624924520915E-12</v>
       </c>
       <c r="T8" s="4">
-        <v>9.0316978060481303E-9</v>
+        <v>7.6003818930501334E-14</v>
       </c>
       <c r="U8" s="4">
         <v>0</v>
@@ -1940,13 +1892,13 @@
         <v>47</v>
       </c>
       <c r="AC8" s="4">
-        <v>5.555895244748313E-12</v>
+        <v>9.0624410000881199E-12</v>
       </c>
       <c r="AD8" s="4">
-        <v>5.7163321507176161E-12</v>
+        <v>8.5932050669135105E-12</v>
       </c>
       <c r="AE8" s="4">
-        <v>2.2639069746438464E-9</v>
+        <v>3.2633042643891763E-16</v>
       </c>
       <c r="AF8" s="4">
         <v>0</v>
@@ -1984,13 +1936,13 @@
         <v>47</v>
       </c>
       <c r="G9" s="4">
-        <v>3.4299941903525905E-12</v>
+        <v>8.3707092450990388E-12</v>
       </c>
       <c r="H9" s="4">
-        <v>3.8823134484723652E-12</v>
+        <v>9.9395397054593881E-12</v>
       </c>
       <c r="I9" s="4">
-        <v>1.409491174077362E-8</v>
+        <v>3.3667884824824587E-11</v>
       </c>
       <c r="J9" s="4">
         <v>0</v>
@@ -2008,13 +1960,13 @@
         <v>47</v>
       </c>
       <c r="R9" s="4">
-        <v>3.7663119084690732E-12</v>
+        <v>6.5739716351415936E-12</v>
       </c>
       <c r="S9" s="4">
-        <v>5.6101654899514381E-12</v>
+        <v>9.5703624926023281E-12</v>
       </c>
       <c r="T9" s="4">
-        <v>9.0316978060451656E-9</v>
+        <v>7.6003818932135096E-14</v>
       </c>
       <c r="U9" s="4">
         <v>0</v>
@@ -2033,13 +1985,13 @@
         <v>47</v>
       </c>
       <c r="AC9" s="4">
-        <v>1.0945872818622751E-11</v>
+        <v>1.8257466841880873E-11</v>
       </c>
       <c r="AD9" s="4">
-        <v>1.122673182877255E-11</v>
+        <v>2.2157719016772211E-11</v>
       </c>
       <c r="AE9" s="4">
-        <v>4.5237142668622079E-9</v>
+        <v>7.7353280451717616E-16</v>
       </c>
       <c r="AF9" s="4">
         <v>0</v>
@@ -2098,13 +2050,13 @@
         <v>47</v>
       </c>
       <c r="R10" s="4">
-        <v>1.3254963907646269E-12</v>
+        <v>2.4549871143559023E-12</v>
       </c>
       <c r="S10" s="4">
-        <v>1.467176282211233E-12</v>
+        <v>2.7274009003121399E-12</v>
       </c>
       <c r="T10" s="4">
-        <v>3.0241477259636309E-9</v>
+        <v>1.4429414930974803E-14</v>
       </c>
       <c r="U10" s="4">
         <v>0</v>
@@ -2123,13 +2075,13 @@
         <v>47</v>
       </c>
       <c r="AC10" s="4">
-        <v>1.0815475361413278E-11</v>
+        <v>1.7007228853144678E-11</v>
       </c>
       <c r="AD10" s="4">
-        <v>1.148863926101511E-11</v>
+        <v>1.9725774373571149E-11</v>
       </c>
       <c r="AE10" s="4">
-        <v>4.5234015384450272E-9</v>
+        <v>6.5560230786807996E-16</v>
       </c>
       <c r="AF10" s="4">
         <v>0</v>
@@ -2158,13 +2110,13 @@
         <v>47</v>
       </c>
       <c r="R11" s="4">
-        <v>3.7663119084184601E-12</v>
+        <v>6.5739716352692896E-12</v>
       </c>
       <c r="S11" s="4">
-        <v>5.6101654904279976E-12</v>
+        <v>9.5703624924161091E-12</v>
       </c>
       <c r="T11" s="4">
-        <v>9.0316978060403564E-9</v>
+        <v>7.443791956004473E-14</v>
       </c>
       <c r="U11" s="4">
         <v>0</v>
@@ -2183,13 +2135,13 @@
         <v>47</v>
       </c>
       <c r="AC11" s="4">
-        <v>3.8905052264674723E-12</v>
+        <v>5.6906935464775579E-12</v>
       </c>
       <c r="AD11" s="4">
-        <v>3.6310714767117051E-12</v>
+        <v>5.823746905090444E-12</v>
       </c>
       <c r="AE11" s="4">
-        <v>1.5097878751916724E-9</v>
+        <v>2.7349059116315758E-16</v>
       </c>
       <c r="AF11" s="4">
         <v>0</v>
@@ -2219,13 +2171,13 @@
         <v>47</v>
       </c>
       <c r="R12" s="4">
-        <v>2.131046238603653E-12</v>
+        <v>3.9314720677673173E-12</v>
       </c>
       <c r="S12" s="4">
-        <v>2.206955060544184E-12</v>
+        <v>4.0417088880954823E-12</v>
       </c>
       <c r="T12" s="4">
-        <v>4.5334345236352404E-9</v>
+        <v>2.9354250582185811E-14</v>
       </c>
       <c r="U12" s="4">
         <v>0</v>
@@ -2243,13 +2195,13 @@
         <v>47</v>
       </c>
       <c r="AC12" s="4">
-        <v>1.0695874850758112E-11</v>
+        <v>1.816203347570438E-11</v>
       </c>
       <c r="AD12" s="4">
-        <v>1.2956763689684168E-11</v>
+        <v>1.9316423235670271E-11</v>
       </c>
       <c r="AE12" s="4">
-        <v>4.5243786672618354E-9</v>
+        <v>7.2003886252300276E-16</v>
       </c>
       <c r="AF12" s="4">
         <v>0</v>
@@ -2275,13 +2227,13 @@
         <v>47</v>
       </c>
       <c r="R13" s="4">
-        <v>1.9928750903006674E-12</v>
+        <v>3.6400907972670346E-12</v>
       </c>
       <c r="S13" s="4">
-        <v>2.2859127786228018E-12</v>
+        <v>4.2554019114662534E-12</v>
       </c>
       <c r="T13" s="4">
-        <v>4.5334425219339508E-9</v>
+        <v>3.1641384114875473E-14</v>
       </c>
       <c r="U13" s="4">
         <v>0</v>
@@ -2299,13 +2251,13 @@
         <v>47</v>
       </c>
       <c r="AC13" s="4">
-        <v>1.0815475361268005E-11</v>
+        <v>1.700722885404341E-11</v>
       </c>
       <c r="AD13" s="4">
-        <v>1.1488639261406987E-11</v>
+        <v>1.9725774373120336E-11</v>
       </c>
       <c r="AE13" s="4">
-        <v>4.5234015384459801E-9</v>
+        <v>6.4356498113455518E-16</v>
       </c>
       <c r="AF13" s="4">
         <v>0</v>
@@ -2331,13 +2283,13 @@
         <v>47</v>
       </c>
       <c r="R14" s="4">
-        <v>1.9928750904423221E-12</v>
+        <v>3.6400907974180984E-12</v>
       </c>
       <c r="S14" s="4">
-        <v>2.2859127785020851E-12</v>
+        <v>4.2554019113866372E-12</v>
       </c>
       <c r="T14" s="4">
-        <v>4.5334425219323494E-9</v>
+        <v>3.2272374548050082E-14</v>
       </c>
       <c r="U14" s="4">
         <v>0</v>
@@ -2355,13 +2307,13 @@
         <v>47</v>
       </c>
       <c r="AC14" s="4">
-        <v>5.6605125455756015E-12</v>
+        <v>8.356607380756015E-12</v>
       </c>
       <c r="AD14" s="4">
-        <v>5.4299479961638432E-12</v>
+        <v>9.1796352428712819E-12</v>
       </c>
       <c r="AE14" s="4">
-        <v>2.2640428774651596E-9</v>
+        <v>3.8460133354718616E-16</v>
       </c>
       <c r="AF14" s="4">
         <v>0</v>
@@ -2387,13 +2339,13 @@
         <v>47</v>
       </c>
       <c r="R15" s="4">
-        <v>1.5513363160686648E-12</v>
+        <v>2.8170375128493288E-12</v>
       </c>
       <c r="S15" s="4">
-        <v>1.3176975451129125E-12</v>
+        <v>2.3401997116039714E-12</v>
       </c>
       <c r="T15" s="4">
-        <v>3.0241319875854994E-9</v>
+        <v>2.9968451421627554E-14</v>
       </c>
       <c r="U15" s="4">
         <v>0</v>
@@ -2411,13 +2363,13 @@
         <v>47</v>
       </c>
       <c r="AC15" s="4">
-        <v>5.6605125456392944E-12</v>
+        <v>8.3566073813533428E-12</v>
       </c>
       <c r="AD15" s="4">
-        <v>5.4299479966489847E-12</v>
+        <v>9.1796352417793001E-12</v>
       </c>
       <c r="AE15" s="4">
-        <v>2.2640428774648382E-9</v>
+        <v>3.8612324817276568E-16</v>
       </c>
       <c r="AF15" s="4">
         <v>0</v>
@@ -2443,13 +2395,13 @@
         <v>47</v>
       </c>
       <c r="R16" s="4">
-        <v>1.9928750902386547E-12</v>
+        <v>3.6400907972176622E-12</v>
       </c>
       <c r="S16" s="4">
-        <v>2.2859127785937987E-12</v>
+        <v>4.2554019114318995E-12</v>
       </c>
       <c r="T16" s="4">
-        <v>4.5334425219361213E-9</v>
+        <v>3.1641384115604405E-14</v>
       </c>
       <c r="U16" s="4">
         <v>0</v>
@@ -2467,13 +2419,13 @@
         <v>47</v>
       </c>
       <c r="AC16" s="4">
-        <v>5.6448698195487653E-12</v>
+        <v>8.9174190883445919E-12</v>
       </c>
       <c r="AD16" s="4">
-        <v>5.4821437631623839E-12</v>
+        <v>8.7466526700563644E-12</v>
       </c>
       <c r="AE16" s="4">
-        <v>2.2640044241350543E-9</v>
+        <v>3.6590053642925798E-16</v>
       </c>
       <c r="AF16" s="4">
         <v>0</v>
@@ -2507,13 +2459,13 @@
         <v>47</v>
       </c>
       <c r="R17" s="4">
-        <v>2.1310462386848976E-12</v>
+        <v>3.9314720677696179E-12</v>
       </c>
       <c r="S17" s="4">
-        <v>2.2069550602948408E-12</v>
+        <v>4.0417088879047655E-12</v>
       </c>
       <c r="T17" s="4">
-        <v>4.5334345236387551E-9</v>
+        <v>2.8602340700726747E-14</v>
       </c>
       <c r="U17" s="4">
         <v>0</v>
@@ -2531,13 +2483,13 @@
         <v>47</v>
       </c>
       <c r="AC17" s="4">
-        <v>3.4862384814951836E-12</v>
+        <v>6.0645453148651721E-12</v>
       </c>
       <c r="AD17" s="4">
-        <v>4.6316446526028584E-12</v>
+        <v>6.0256213878883083E-12</v>
       </c>
       <c r="AE17" s="4">
-        <v>1.5097706647795196E-9</v>
+        <v>2.5991764778679326E-16</v>
       </c>
       <c r="AF17" s="4">
         <v>0</v>
@@ -2592,13 +2544,13 @@
         <v>47</v>
       </c>
       <c r="AC18" s="4">
-        <v>4.467836900662223E-12</v>
+        <v>8.4898506312202768E-12</v>
       </c>
       <c r="AD18" s="4">
-        <v>2.4456513554432109E-12</v>
+        <v>5.1880898714817039E-12</v>
       </c>
       <c r="AE18" s="4">
-        <v>1.5097288756236944E-9</v>
+        <v>2.6300513164584981E-16</v>
       </c>
       <c r="AF18" s="4">
         <v>0</v>
@@ -2651,13 +2603,13 @@
         <v>47</v>
       </c>
       <c r="AC19" s="4">
-        <v>5.2332356025515787E-12</v>
+        <v>8.9697182989003972E-12</v>
       </c>
       <c r="AD19" s="4">
-        <v>7.3353700349842082E-12</v>
+        <v>8.7648089055171116E-12</v>
       </c>
       <c r="AE19" s="4">
-        <v>2.2640970714615604E-9</v>
+        <v>3.7506592810343396E-16</v>
       </c>
       <c r="AF19" s="4">
         <v>0</v>
@@ -2689,13 +2641,13 @@
         <v>47</v>
       </c>
       <c r="R20" s="4">
-        <v>2.2145222167989025E-11</v>
+        <v>8.6156035552685672E-12</v>
       </c>
       <c r="S20" s="4">
-        <v>2.6762492626361875E-11</v>
+        <v>7.3995120098493666E-12</v>
       </c>
       <c r="T20" s="4">
-        <v>7.0239601367218779E-9</v>
+        <v>-6.9834155676145391E-13</v>
       </c>
       <c r="U20" s="4">
         <v>0</v>
@@ -2713,13 +2665,13 @@
         <v>47</v>
       </c>
       <c r="AC20" s="4">
-        <v>1.0695874850825114E-11</v>
+        <v>1.8162033475551972E-11</v>
       </c>
       <c r="AD20" s="4">
-        <v>1.2956763690079561E-11</v>
+        <v>1.9316423235893403E-11</v>
       </c>
       <c r="AE20" s="4">
-        <v>4.524378667261938E-9</v>
+        <v>7.1000566388423737E-16</v>
       </c>
       <c r="AF20" s="4">
         <v>0</v>
@@ -2748,16 +2700,16 @@
         <v>2</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R21" s="4">
-        <v>9.0634479286488466E-10</v>
+        <v>9.6453721863764882E-12</v>
       </c>
       <c r="S21" s="4">
-        <v>107.05189023146639</v>
+        <v>9.4157372990244145E-12</v>
       </c>
       <c r="T21" s="4">
-        <v>236.73173607365325</v>
+        <v>-9.55705745499577E-14</v>
       </c>
       <c r="U21" s="4">
         <v>0</v>
@@ -2775,13 +2727,13 @@
         <v>47</v>
       </c>
       <c r="AC21" s="4">
-        <v>1.0945872818912057E-11</v>
+        <v>1.8257466842098629E-11</v>
       </c>
       <c r="AD21" s="4">
-        <v>1.1226731828678665E-11</v>
+        <v>2.2157719016241574E-11</v>
       </c>
       <c r="AE21" s="4">
-        <v>4.5237142668615552E-9</v>
+        <v>7.6801686851680106E-16</v>
       </c>
       <c r="AF21" s="4">
         <v>0</v>
@@ -2810,16 +2762,16 @@
         <v>3</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R22" s="4">
-        <v>6.3910040312231949E-11</v>
+        <v>9.6753786365931006E-12</v>
       </c>
       <c r="S22" s="4">
-        <v>92.90897997098854</v>
+        <v>9.3831314947879857E-12</v>
       </c>
       <c r="T22" s="4">
-        <v>109.7493359088853</v>
+        <v>9.55705745499577E-14</v>
       </c>
       <c r="U22" s="4">
         <v>0</v>
@@ -2837,13 +2789,13 @@
         <v>47</v>
       </c>
       <c r="AC22" s="4">
-        <v>1.0945872817792054E-11</v>
+        <v>1.8257466842267373E-11</v>
       </c>
       <c r="AD22" s="4">
-        <v>1.1226731828301264E-11</v>
+        <v>2.2157719014739414E-11</v>
       </c>
       <c r="AE22" s="4">
-        <v>4.5237142668609969E-9</v>
+        <v>7.7353280452624491E-16</v>
       </c>
       <c r="AF22" s="4">
         <v>0</v>
@@ -2875,13 +2827,13 @@
         <v>47</v>
       </c>
       <c r="R23" s="4">
-        <v>2.2145223053645905E-11</v>
+        <v>8.615443722101085E-12</v>
       </c>
       <c r="S23" s="4">
-        <v>2.6762491935527072E-11</v>
+        <v>7.3999521261081754E-12</v>
       </c>
       <c r="T23" s="4">
-        <v>7.0239601367228912E-9</v>
+        <v>6.6041821370184285E-14</v>
       </c>
       <c r="U23" s="4">
         <v>0</v>
@@ -2899,13 +2851,13 @@
         <v>47</v>
       </c>
       <c r="AC23" s="4">
-        <v>5.5558952444262295E-12</v>
+        <v>9.0624410008005292E-12</v>
       </c>
       <c r="AD23" s="4">
-        <v>5.716332150569344E-12</v>
+        <v>8.5932050664615597E-12</v>
       </c>
       <c r="AE23" s="4">
-        <v>2.2639069746434444E-9</v>
+        <v>3.2996693201474274E-16</v>
       </c>
       <c r="AF23" s="4">
         <v>0</v>
@@ -2925,13 +2877,13 @@
         <v>47</v>
       </c>
       <c r="R24" s="4">
-        <v>2.1698266638996798E-11</v>
+        <v>9.2583986355131403E-12</v>
       </c>
       <c r="S24" s="4">
-        <v>2.5890105779173638E-11</v>
+        <v>1.1602991410842443E-11</v>
       </c>
       <c r="T24" s="4">
-        <v>7.0239601362882797E-9</v>
+        <v>6.425040143242043E-14</v>
       </c>
       <c r="U24" s="4">
         <v>0</v>
@@ -2949,13 +2901,13 @@
         <v>47</v>
       </c>
       <c r="AC24" s="4">
-        <v>1.0815475361532289E-11</v>
+        <v>1.7007228853799185E-11</v>
       </c>
       <c r="AD24" s="4">
-        <v>1.148863926142684E-11</v>
+        <v>1.97257743729762E-11</v>
       </c>
       <c r="AE24" s="4">
-        <v>4.5234015384463581E-9</v>
+        <v>6.5560230783892366E-16</v>
       </c>
       <c r="AF24" s="4">
         <v>0</v>
@@ -2978,19 +2930,19 @@
         <v>6</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="R25" s="2">
-        <v>2.1626336743837235E-10</v>
+        <v>19.730704817817678</v>
       </c>
       <c r="S25" s="2">
-        <v>92.908980051498119</v>
+        <v>252.36533803349533</v>
       </c>
       <c r="T25" s="2">
-        <v>81.916838434344086</v>
+        <v>255.15741694069425</v>
       </c>
       <c r="U25" s="2">
-        <v>230.18361871024536</v>
+        <v>230.18183055645466</v>
       </c>
       <c r="W25" s="8">
         <v>19.730842590332031</v>
@@ -3005,13 +2957,13 @@
         <v>47</v>
       </c>
       <c r="AC25" s="4">
-        <v>5.6448698194817637E-12</v>
+        <v>8.9174190878302923E-12</v>
       </c>
       <c r="AD25" s="4">
-        <v>5.4821437625435494E-12</v>
+        <v>8.7466526708005167E-12</v>
       </c>
       <c r="AE25" s="4">
-        <v>2.264004424135321E-9</v>
+        <v>3.6371381082504423E-16</v>
       </c>
       <c r="AF25" s="4">
         <v>0</v>
@@ -3040,13 +2992,13 @@
         <v>47</v>
       </c>
       <c r="R26" s="4">
-        <v>2.2088110675064844E-11</v>
+        <v>7.395649037236321E-12</v>
       </c>
       <c r="S26" s="4">
-        <v>2.5873252369381535E-11</v>
+        <v>4.5798669045940797E-12</v>
       </c>
       <c r="T26" s="4">
-        <v>7.0239601367183557E-9</v>
+        <v>6.5130357602116528E-14</v>
       </c>
       <c r="U26" s="4">
         <v>0</v>
@@ -3064,13 +3016,13 @@
         <v>47</v>
       </c>
       <c r="AC26" s="4">
-        <v>3.4792919366447398E-12</v>
+        <v>4.9916603613279E-12</v>
       </c>
       <c r="AD26" s="4">
-        <v>4.6413048481322956E-12</v>
+        <v>6.5897418716737262E-12</v>
       </c>
       <c r="AE26" s="4">
-        <v>1.5097647940523628E-9</v>
+        <v>2.6211746866960272E-16</v>
       </c>
       <c r="AF26" s="4">
         <v>0</v>
@@ -3099,13 +3051,13 @@
         <v>47</v>
       </c>
       <c r="R27" s="4">
-        <v>1.1303212448278127E-11</v>
+        <v>4.400096220784499E-12</v>
       </c>
       <c r="S27" s="4">
-        <v>1.2610302137996708E-11</v>
+        <v>4.6287408885787663E-12</v>
       </c>
       <c r="T27" s="4">
-        <v>3.5373176351538269E-9</v>
+        <v>1.2704097126669387E-13</v>
       </c>
       <c r="U27" s="4">
         <v>0</v>
@@ -3124,13 +3076,13 @@
         <v>47</v>
       </c>
       <c r="AC27" s="4">
-        <v>5.2332356033801034E-12</v>
+        <v>8.9697182997214773E-12</v>
       </c>
       <c r="AD27" s="4">
-        <v>7.3353700326085455E-12</v>
+        <v>8.7648089055031529E-12</v>
       </c>
       <c r="AE27" s="4">
-        <v>2.2640970714619508E-9</v>
+        <v>3.769654056721887E-16</v>
       </c>
       <c r="AF27" s="4">
         <v>0</v>
@@ -3156,13 +3108,13 @@
         <v>47</v>
       </c>
       <c r="R28" s="4">
-        <v>2.2088110787129696E-11</v>
+        <v>7.3955965033340639E-12</v>
       </c>
       <c r="S28" s="4">
-        <v>2.5873251758412855E-11</v>
+        <v>4.5798697946639817E-12</v>
       </c>
       <c r="T28" s="4">
-        <v>7.0239601366989186E-9</v>
+        <v>6.5130371770143608E-14</v>
       </c>
       <c r="U28" s="4">
         <v>0</v>
@@ -3181,13 +3133,13 @@
         <v>47</v>
       </c>
       <c r="AC28" s="4">
-        <v>5.6448698193466231E-12</v>
+        <v>8.9174190883317706E-12</v>
       </c>
       <c r="AD28" s="4">
-        <v>5.4821437621689917E-12</v>
+        <v>8.7466526694468357E-12</v>
       </c>
       <c r="AE28" s="4">
-        <v>2.2640044241346241E-9</v>
+        <v>3.6371381082477602E-16</v>
       </c>
       <c r="AF28" s="4">
         <v>0</v>
@@ -3213,13 +3165,13 @@
         <v>47</v>
       </c>
       <c r="R29" s="4">
-        <v>2.1698266398068269E-11</v>
+        <v>9.2584951515638118E-12</v>
       </c>
       <c r="S29" s="4">
-        <v>2.5890104959839454E-11</v>
+        <v>1.1603330792243884E-11</v>
       </c>
       <c r="T29" s="4">
-        <v>7.0239601362837492E-9</v>
+        <v>6.4250387349899107E-14</v>
       </c>
       <c r="U29" s="4">
         <v>0</v>
@@ -3238,13 +3190,13 @@
         <v>47</v>
       </c>
       <c r="AC29" s="4">
-        <v>5.2332356029236548E-12</v>
+        <v>8.9697182997472233E-12</v>
       </c>
       <c r="AD29" s="4">
-        <v>7.335370035256454E-12</v>
+        <v>8.7648089061614853E-12</v>
       </c>
       <c r="AE29" s="4">
-        <v>2.2640970714622759E-9</v>
+        <v>3.7506592810406821E-16</v>
       </c>
       <c r="AF29" s="4">
         <v>0</v>
@@ -3270,13 +3222,13 @@
         <v>47</v>
       </c>
       <c r="R30" s="4">
-        <v>2.2060008528764483E-11</v>
+        <v>8.0571438051289414E-12</v>
       </c>
       <c r="S30" s="4">
-        <v>2.6150913067748947E-11</v>
+        <v>4.3029043644827098E-12</v>
       </c>
       <c r="T30" s="4">
-        <v>7.0239601362799541E-9</v>
+        <v>6.3336517369495153E-14</v>
       </c>
       <c r="U30" s="4">
         <v>0</v>
@@ -3288,13 +3240,13 @@
         <v>47</v>
       </c>
       <c r="AC30" s="4">
-        <v>5.6605125454573147E-12</v>
+        <v>8.3566073812045537E-12</v>
       </c>
       <c r="AD30" s="4">
-        <v>5.4299479958058291E-12</v>
+        <v>9.1796352413142178E-12</v>
       </c>
       <c r="AE30" s="4">
-        <v>2.2640428774645053E-9</v>
+        <v>3.8460133354673493E-16</v>
       </c>
       <c r="AF30" s="4">
         <v>0</v>
@@ -3320,13 +3272,13 @@
         <v>47</v>
       </c>
       <c r="R31" s="4">
-        <v>2.2060008984148116E-11</v>
+        <v>8.0571760149819671E-12</v>
       </c>
       <c r="S31" s="4">
-        <v>2.6150914126504511E-11</v>
+        <v>4.3028567597331534E-12</v>
       </c>
       <c r="T31" s="4">
-        <v>7.02396013626404E-9</v>
+        <v>6.3336503534713616E-14</v>
       </c>
       <c r="U31" s="4">
         <v>0</v>
@@ -3338,13 +3290,13 @@
         <v>47</v>
       </c>
       <c r="AC31" s="4">
-        <v>1.0695874850725852E-11</v>
+        <v>1.8162033474395574E-11</v>
       </c>
       <c r="AD31" s="4">
-        <v>1.2956763688727741E-11</v>
+        <v>1.9316423236707556E-11</v>
       </c>
       <c r="AE31" s="4">
-        <v>4.524378667262053E-9</v>
+        <v>7.200388625322419E-16</v>
       </c>
       <c r="AF31" s="4">
         <v>0</v>
@@ -3370,13 +3322,13 @@
         <v>47</v>
       </c>
       <c r="R32" s="4">
-        <v>1.1358000573155691E-11</v>
+        <v>4.7638882235243724E-12</v>
       </c>
       <c r="S32" s="4">
-        <v>1.2638636178343037E-11</v>
+        <v>2.2954715241454612E-12</v>
       </c>
       <c r="T32" s="4">
-        <v>3.5373176350631307E-9</v>
+        <v>1.2872771322396135E-13</v>
       </c>
       <c r="U32" s="4">
         <v>0</v>
@@ -3388,13 +3340,13 @@
         <v>47</v>
       </c>
       <c r="AC32" s="4">
-        <v>5.5558952447470722E-12</v>
+        <v>9.0624410008065262E-12</v>
       </c>
       <c r="AD32" s="4">
-        <v>5.7163321508026089E-12</v>
+        <v>8.593205065875709E-12</v>
       </c>
       <c r="AE32" s="4">
-        <v>2.263906974643159E-9</v>
+        <v>3.263304264370717E-16</v>
       </c>
       <c r="AF32" s="4">
         <v>0</v>
@@ -3420,13 +3372,13 @@
         <v>47</v>
       </c>
       <c r="R33" s="4">
-        <v>1.12666112998668E-11</v>
+        <v>4.4815921360603557E-12</v>
       </c>
       <c r="S33" s="4">
-        <v>1.2597300581836535E-11</v>
+        <v>4.4282023700842383E-12</v>
       </c>
       <c r="T33" s="4">
-        <v>3.5373176352631301E-9</v>
+        <v>1.2577145330477669E-13</v>
       </c>
       <c r="U33" s="4">
         <v>0</v>
@@ -3435,19 +3387,19 @@
         <v>31</v>
       </c>
       <c r="AB33" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AC33" s="4">
-        <v>1.454486984857716E-11</v>
+        <v>8.6399780199105012E-5</v>
       </c>
       <c r="AD33" s="2">
-        <v>7.140724486874398E-4</v>
+        <v>1.9396094761585973E-3</v>
       </c>
       <c r="AE33" s="4">
-        <v>5.5072679217470157E-4</v>
+        <v>1.6473492398064535E-3</v>
       </c>
       <c r="AF33" s="4">
-        <v>1.6276352698517457E-3</v>
+        <v>1.627625424474225E-3</v>
       </c>
     </row>
     <row r="34" spans="1:37" x14ac:dyDescent="0.25">
@@ -3470,13 +3422,13 @@
         <v>47</v>
       </c>
       <c r="R34" s="4">
-        <v>1.1797299267220334E-11</v>
+        <v>4.398413854274843E-12</v>
       </c>
       <c r="S34" s="4">
-        <v>1.2047041304120711E-11</v>
+        <v>4.6807142522773516E-12</v>
       </c>
       <c r="T34" s="4">
-        <v>3.5373176353055922E-9</v>
+        <v>1.2408412839396282E-13</v>
       </c>
       <c r="U34" s="4">
         <v>0</v>
@@ -3485,16 +3437,16 @@
         <v>46</v>
       </c>
       <c r="AB34" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="AD34" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="AE34" s="2" t="s">
         <v>49</v>
       </c>
       <c r="AF34" s="2" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="AG34" s="3"/>
       <c r="AH34" s="3"/>
@@ -3516,16 +3468,16 @@
         <v>46</v>
       </c>
       <c r="Q35" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="R35" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="T35" s="2" t="s">
         <v>49</v>
       </c>
       <c r="U35" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="W35" s="1" t="s">
         <v>20</v>
@@ -3610,13 +3562,13 @@
         <v>47</v>
       </c>
       <c r="AC36" s="4">
-        <v>2.0378402921473289E-11</v>
+        <v>5.0840638689904273E-12</v>
       </c>
       <c r="AD36" s="4">
-        <v>2.5491660936073805E-11</v>
+        <v>5.2805874702030802E-12</v>
       </c>
       <c r="AE36" s="4">
-        <v>4.3927558082652416E-9</v>
+        <v>-1.0669136536215602E-11</v>
       </c>
       <c r="AF36" s="4">
         <v>0</v>
@@ -3648,13 +3600,13 @@
         <v>47</v>
       </c>
       <c r="R37" s="4">
-        <v>2.1908526219683319E-11</v>
+        <v>3.6789722154021357E-11</v>
       </c>
       <c r="S37" s="4">
-        <v>2.7615782267924691E-11</v>
+        <v>4.6906309924380905E-11</v>
       </c>
       <c r="T37" s="4">
-        <v>9.0236555079310371E-9</v>
+        <v>-3.3481421191883352E-12</v>
       </c>
       <c r="U37" s="4">
         <v>0</v>
@@ -3678,13 +3630,13 @@
         <v>47</v>
       </c>
       <c r="AC37" s="4">
-        <v>2.0378402907635385E-11</v>
+        <v>5.0840638471466553E-12</v>
       </c>
       <c r="AD37" s="4">
-        <v>2.5491660740458412E-11</v>
+        <v>5.2805874871355708E-12</v>
       </c>
       <c r="AE37" s="4">
-        <v>4.3927558082728533E-9</v>
+        <v>1.1934544287680703E-12</v>
       </c>
       <c r="AF37" s="4">
         <v>0</v>
@@ -3716,16 +3668,16 @@
         <v>48</v>
       </c>
       <c r="R38" s="2">
-        <v>7.0931982357622694</v>
+        <v>2.6113800675830006</v>
       </c>
       <c r="S38" s="2">
-        <v>21.611486875562107</v>
+        <v>58.702508489124668</v>
       </c>
       <c r="T38" s="2">
-        <v>49.820048640868265</v>
+        <v>49.820122336526453</v>
       </c>
       <c r="U38" s="2">
-        <v>49.231431089372329</v>
+        <v>49.231433688689592</v>
       </c>
       <c r="W38" s="2" t="s">
         <v>14</v>
@@ -3743,16 +3695,16 @@
         <v>3</v>
       </c>
       <c r="AB38" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="AC38" s="4">
-        <v>3.3713400047929252E-11</v>
+        <v>3.5389308876695497E-12</v>
       </c>
       <c r="AD38" s="4">
-        <v>66.195054499864995</v>
+        <v>3.4850412229469201E-12</v>
       </c>
       <c r="AE38" s="4">
-        <v>122.64959872194791</v>
+        <v>-7.4180855865595157E-13</v>
       </c>
       <c r="AF38" s="4">
         <v>0</v>
@@ -3784,13 +3736,13 @@
         <v>47</v>
       </c>
       <c r="R39" s="4">
-        <v>2.190852621988784E-11</v>
+        <v>3.6789722153839998E-11</v>
       </c>
       <c r="S39" s="4">
-        <v>2.7615782268157542E-11</v>
+        <v>4.6906309924650359E-11</v>
       </c>
       <c r="T39" s="4">
-        <v>9.0236555079341688E-9</v>
+        <v>9.4020687416426597E-13</v>
       </c>
       <c r="U39" s="4">
         <v>0</v>
@@ -3811,16 +3763,16 @@
         <v>4</v>
       </c>
       <c r="AB39" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="AC39" s="4">
-        <v>1.970789578172716E-10</v>
+        <v>3.5706734437832657E-12</v>
       </c>
       <c r="AD39" s="4">
-        <v>108.90541684618404</v>
+        <v>3.452232646564557E-12</v>
       </c>
       <c r="AE39" s="4">
-        <v>181.22103425725632</v>
+        <v>7.4180855865595157E-13</v>
       </c>
       <c r="AF39" s="4">
         <v>0</v>
@@ -3857,13 +3809,13 @@
         <v>47</v>
       </c>
       <c r="R40" s="4">
-        <v>2.1908526219453777E-11</v>
+        <v>3.6789722153685522E-11</v>
       </c>
       <c r="S40" s="4">
-        <v>2.7615782267560525E-11</v>
+        <v>4.6906309923732188E-11</v>
       </c>
       <c r="T40" s="4">
-        <v>9.0236555079315698E-9</v>
+        <v>9.4020687420868815E-13</v>
       </c>
       <c r="U40" s="4">
         <v>0</v>
@@ -3887,13 +3839,13 @@
         <v>47</v>
       </c>
       <c r="AC40" s="4">
-        <v>2.037840294028958E-11</v>
+        <v>5.0840639377158496E-12</v>
       </c>
       <c r="AD40" s="4">
-        <v>2.5491660881954066E-11</v>
+        <v>5.2805875070922336E-12</v>
       </c>
       <c r="AE40" s="4">
-        <v>4.3927558082726878E-9</v>
+        <v>1.1934544286637551E-12</v>
       </c>
       <c r="AF40" s="4">
         <v>0</v>
@@ -3918,13 +3870,13 @@
         <v>47</v>
       </c>
       <c r="R41" s="4">
-        <v>2.1136096475967802E-11</v>
+        <v>3.5426407422378946E-11</v>
       </c>
       <c r="S41" s="4">
-        <v>2.8512862265231067E-11</v>
+        <v>4.9069324379658287E-11</v>
       </c>
       <c r="T41" s="4">
-        <v>9.0236555211291654E-9</v>
+        <v>9.3504450621948479E-13</v>
       </c>
       <c r="U41" s="4">
         <v>0</v>
@@ -3936,13 +3888,13 @@
         <v>47</v>
       </c>
       <c r="AC41" s="4">
-        <v>2.0475709468893005E-11</v>
+        <v>5.0599685162036776E-12</v>
       </c>
       <c r="AD41" s="4">
-        <v>2.4693052231102759E-11</v>
+        <v>5.2870704057775503E-12</v>
       </c>
       <c r="AE41" s="4">
-        <v>4.3927558092648645E-9</v>
+        <v>1.1910981385372608E-12</v>
       </c>
       <c r="AF41" s="4">
         <v>0</v>
@@ -3968,13 +3920,13 @@
         <v>47</v>
       </c>
       <c r="R42" s="4">
-        <v>2.1136096476118969E-11</v>
+        <v>3.5426407422828105E-11</v>
       </c>
       <c r="S42" s="4">
-        <v>2.8512862265390093E-11</v>
+        <v>4.9069324379080915E-11</v>
       </c>
       <c r="T42" s="4">
-        <v>9.0236555211302159E-9</v>
+        <v>9.3957201126020021E-13</v>
       </c>
       <c r="U42" s="4">
         <v>0</v>
@@ -3992,13 +3944,13 @@
         <v>47</v>
       </c>
       <c r="AC42" s="4">
-        <v>2.0010667020054653E-11</v>
+        <v>5.1052071414786727E-12</v>
       </c>
       <c r="AD42" s="4">
-        <v>2.5778081942276963E-11</v>
+        <v>5.3031890034920168E-12</v>
       </c>
       <c r="AE42" s="4">
-        <v>4.3927558085202241E-9</v>
+        <v>1.1931710195330297E-12</v>
       </c>
       <c r="AF42" s="4">
         <v>0</v>
@@ -4018,13 +3970,13 @@
         <v>47</v>
       </c>
       <c r="R43" s="4">
-        <v>1.1871681912063575E-11</v>
+        <v>2.0075029715353073E-11</v>
       </c>
       <c r="S43" s="4">
-        <v>1.2610188617926821E-11</v>
+        <v>2.130484435516447E-11</v>
       </c>
       <c r="T43" s="4">
-        <v>4.5351038283492297E-9</v>
+        <v>4.4577944106313484E-13</v>
       </c>
       <c r="U43" s="4">
         <v>0</v>
@@ -4042,13 +3994,13 @@
         <v>47</v>
       </c>
       <c r="AC43" s="4">
-        <v>2.0475709486499752E-11</v>
+        <v>5.059968500023146E-12</v>
       </c>
       <c r="AD43" s="4">
-        <v>2.4693052097807152E-11</v>
+        <v>5.2870704213584277E-12</v>
       </c>
       <c r="AE43" s="4">
-        <v>4.392755809231458E-9</v>
+        <v>1.1911772782351743E-12</v>
       </c>
       <c r="AF43" s="4">
         <v>0</v>
@@ -4068,13 +4020,13 @@
         <v>47</v>
       </c>
       <c r="R44" s="4">
-        <v>1.1412185124111294E-11</v>
+        <v>1.9024446224365707E-11</v>
       </c>
       <c r="S44" s="4">
-        <v>1.3113775273130937E-11</v>
+        <v>2.2110359028235547E-11</v>
       </c>
       <c r="T44" s="4">
-        <v>4.5351038282424779E-9</v>
+        <v>4.4422361687435763E-13</v>
       </c>
       <c r="U44" s="4">
         <v>0</v>
@@ -4092,13 +4044,13 @@
         <v>47</v>
       </c>
       <c r="AC44" s="4">
-        <v>2.0112995718170666E-11</v>
+        <v>5.1554580491135516E-12</v>
       </c>
       <c r="AD44" s="4">
-        <v>2.5017597244002781E-11</v>
+        <v>5.1664587686837477E-12</v>
       </c>
       <c r="AE44" s="4">
-        <v>4.3927558094160285E-9</v>
+        <v>1.1908168924532833E-12</v>
       </c>
       <c r="AF44" s="4">
         <v>0</v>
@@ -4118,13 +4070,13 @@
         <v>47</v>
       </c>
       <c r="R45" s="4">
-        <v>1.1871681912125923E-11</v>
+        <v>2.0075029715494831E-11</v>
       </c>
       <c r="S45" s="4">
-        <v>1.261018861796208E-11</v>
+        <v>2.1304844355170002E-11</v>
       </c>
       <c r="T45" s="4">
-        <v>4.5351038283478813E-9</v>
+        <v>4.4412340321042637E-13</v>
       </c>
       <c r="U45" s="4">
         <v>0</v>
@@ -4142,13 +4094,13 @@
         <v>47</v>
       </c>
       <c r="AC45" s="4">
-        <v>1.0678010305795474E-11</v>
+        <v>2.4775337382882861E-12</v>
       </c>
       <c r="AD45" s="4">
-        <v>1.1832290018725317E-11</v>
+        <v>2.5049546372086793E-12</v>
       </c>
       <c r="AE45" s="4">
-        <v>2.3087739807391728E-9</v>
+        <v>7.6995757343985002E-13</v>
       </c>
       <c r="AF45" s="4">
         <v>0</v>
@@ -4171,13 +4123,13 @@
         <v>47</v>
       </c>
       <c r="R46" s="4">
-        <v>2.1136096475771139E-11</v>
+        <v>3.5426407422091501E-11</v>
       </c>
       <c r="S46" s="4">
-        <v>2.8512862264911155E-11</v>
+        <v>4.9069324378772377E-11</v>
       </c>
       <c r="T46" s="4">
-        <v>9.0236555211265134E-9</v>
+        <v>9.39572011305204E-13</v>
       </c>
       <c r="U46" s="4">
         <v>0</v>
@@ -4195,13 +4147,13 @@
         <v>47</v>
       </c>
       <c r="AC46" s="4">
-        <v>1.0865563255942388E-11</v>
+        <v>2.4912960319836696E-12</v>
       </c>
       <c r="AD46" s="4">
-        <v>1.1830412894721982E-11</v>
+        <v>2.5031855474064558E-12</v>
       </c>
       <c r="AE46" s="4">
-        <v>2.3087739807113853E-9</v>
+        <v>7.6976174071724098E-13</v>
       </c>
       <c r="AF46" s="4">
         <v>0</v>
@@ -4223,13 +4175,13 @@
         <v>47</v>
       </c>
       <c r="R47" s="4">
-        <v>1.1412185124227823E-11</v>
+        <v>1.9024446224525663E-11</v>
       </c>
       <c r="S47" s="4">
-        <v>1.3113775273246638E-11</v>
+        <v>2.211035902851834E-11</v>
       </c>
       <c r="T47" s="4">
-        <v>4.5351038282394305E-9</v>
+        <v>4.442236168686126E-13</v>
       </c>
       <c r="U47" s="4">
         <v>0</v>
@@ -4247,13 +4199,13 @@
         <v>47</v>
       </c>
       <c r="AC47" s="4">
-        <v>1.0752021882512726E-11</v>
+        <v>2.4644016314396277E-12</v>
       </c>
       <c r="AD47" s="4">
-        <v>1.1751935197340398E-11</v>
+        <v>2.521809947028109E-12</v>
       </c>
       <c r="AE47" s="4">
-        <v>2.3087739808305952E-9</v>
+        <v>7.6925393358532618E-13</v>
       </c>
       <c r="AF47" s="4">
         <v>0</v>
@@ -4273,13 +4225,13 @@
         <v>47</v>
       </c>
       <c r="R48" s="4">
-        <v>1.1412185124174057E-11</v>
+        <v>1.9024446224409755E-11</v>
       </c>
       <c r="S48" s="4">
-        <v>1.3113775273200213E-11</v>
+        <v>2.2110359028458886E-11</v>
       </c>
       <c r="T48" s="4">
-        <v>4.5351038282402081E-9</v>
+        <v>4.458774346610138E-13</v>
       </c>
       <c r="U48" s="4">
         <v>0</v>
@@ -4297,13 +4249,13 @@
         <v>47</v>
       </c>
       <c r="AC48" s="4">
-        <v>2.0112995784586859E-11</v>
+        <v>5.1554583453235168E-12</v>
       </c>
       <c r="AD48" s="4">
-        <v>2.5017597121550685E-11</v>
+        <v>5.1664587638872892E-12</v>
       </c>
       <c r="AE48" s="4">
-        <v>4.3927558094295661E-9</v>
+        <v>1.1908963416623232E-12</v>
       </c>
       <c r="AF48" s="4">
         <v>0</v>
@@ -4323,13 +4275,13 @@
         <v>47</v>
       </c>
       <c r="R49" s="4">
-        <v>8.1898578449217379E-12</v>
+        <v>1.3805224997329763E-11</v>
       </c>
       <c r="S49" s="4">
-        <v>8.3460143038695173E-12</v>
+        <v>1.3556929339606478E-11</v>
       </c>
       <c r="T49" s="4">
-        <v>3.0287494536981613E-9</v>
+        <v>3.1796088351183238E-13</v>
       </c>
       <c r="U49" s="4">
         <v>0</v>
@@ -4347,13 +4299,13 @@
         <v>47</v>
       </c>
       <c r="AC49" s="4">
-        <v>2.0112995544797126E-11</v>
+        <v>5.1554582045333958E-12</v>
       </c>
       <c r="AD49" s="4">
-        <v>2.5017597465798027E-11</v>
+        <v>5.1664587840088195E-12</v>
       </c>
       <c r="AE49" s="4">
-        <v>4.3927558094422269E-9</v>
+        <v>1.1908963416019067E-12</v>
       </c>
       <c r="AF49" s="4">
         <v>0</v>
@@ -4373,13 +4325,13 @@
         <v>47</v>
       </c>
       <c r="R50" s="4">
-        <v>7.6192417033550255E-12</v>
+        <v>1.2593977187243337E-11</v>
       </c>
       <c r="S50" s="4">
-        <v>8.5654257485315478E-12</v>
+        <v>1.4526236725081838E-11</v>
       </c>
       <c r="T50" s="4">
-        <v>3.0287494542960098E-9</v>
+        <v>3.1844268928771496E-13</v>
       </c>
       <c r="U50" s="4">
         <v>0</v>
@@ -4397,13 +4349,13 @@
         <v>47</v>
       </c>
       <c r="AC50" s="4">
-        <v>1.0634561577861535E-11</v>
+        <v>2.4790656302988545E-12</v>
       </c>
       <c r="AD50" s="4">
-        <v>1.2007903432972315E-11</v>
+        <v>2.5034828237558761E-12</v>
       </c>
       <c r="AE50" s="4">
-        <v>2.3087739808517161E-9</v>
+        <v>7.6948525398486129E-13</v>
       </c>
       <c r="AF50" s="4">
         <v>0</v>
@@ -4423,13 +4375,13 @@
         <v>47</v>
       </c>
       <c r="R51" s="4">
-        <v>1.1871681911999365E-11</v>
+        <v>2.0075029715289277E-11</v>
       </c>
       <c r="S51" s="4">
-        <v>1.2610188617836658E-11</v>
+        <v>2.1304844354632696E-11</v>
       </c>
       <c r="T51" s="4">
-        <v>4.5351038283511421E-9</v>
+        <v>4.4412340321590644E-13</v>
       </c>
       <c r="U51" s="4">
         <v>0</v>
@@ -4447,13 +4399,13 @@
         <v>47</v>
       </c>
       <c r="AC51" s="4">
-        <v>7.2080699164356853E-12</v>
+        <v>1.6026549211496163E-12</v>
       </c>
       <c r="AD51" s="4">
-        <v>7.8581262834812355E-12</v>
+        <v>1.6758942217324929E-12</v>
       </c>
       <c r="AE51" s="4">
-        <v>1.55098930241006E-9</v>
+        <v>2.3508798334319206E-13</v>
       </c>
       <c r="AF51" s="4">
         <v>0</v>
@@ -4497,13 +4449,13 @@
         <v>47</v>
       </c>
       <c r="AC52" s="4">
-        <v>7.1567847957959931E-12</v>
+        <v>1.614993096702236E-12</v>
       </c>
       <c r="AD52" s="4">
-        <v>7.9817334674681402E-12</v>
+        <v>1.6381557313496011E-12</v>
       </c>
       <c r="AE52" s="4">
-        <v>1.5509893023711385E-9</v>
+        <v>2.3450714494028599E-13</v>
       </c>
       <c r="AF52" s="4">
         <v>0</v>
@@ -4548,13 +4500,13 @@
         <v>47</v>
       </c>
       <c r="AC53" s="4">
-        <v>7.2711272327232351E-12</v>
+        <v>1.6394480017502091E-12</v>
       </c>
       <c r="AD53" s="4">
-        <v>7.6276766509117648E-12</v>
+        <v>1.6431086498530881E-12</v>
       </c>
       <c r="AE53" s="4">
-        <v>1.5509893023588294E-9</v>
+        <v>2.3348240509167078E-13</v>
       </c>
       <c r="AF53" s="4">
         <v>0</v>
@@ -4583,13 +4535,13 @@
         <v>47</v>
       </c>
       <c r="R54" s="4">
-        <v>5.9037765047444811E-12</v>
+        <v>1.3917968893570806E-11</v>
       </c>
       <c r="S54" s="4">
-        <v>8.6128715579791731E-12</v>
+        <v>1.6632385267239876E-11</v>
       </c>
       <c r="T54" s="4">
-        <v>7.0441176549532398E-9</v>
+        <v>-2.0104036510464976E-10</v>
       </c>
       <c r="U54" s="4">
         <v>0</v>
@@ -4607,13 +4559,13 @@
         <v>47</v>
       </c>
       <c r="AC54" s="4">
-        <v>1.0865563147372554E-11</v>
+        <v>2.4912962173850112E-12</v>
       </c>
       <c r="AD54" s="4">
-        <v>1.1830412718495185E-11</v>
+        <v>2.5031855383042896E-12</v>
       </c>
       <c r="AE54" s="4">
-        <v>2.3087739807149781E-9</v>
+        <v>7.6976174067390124E-13</v>
       </c>
       <c r="AF54" s="4">
         <v>0</v>
@@ -4639,16 +4591,16 @@
         <v>2</v>
       </c>
       <c r="Q55" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R55" s="4">
-        <v>6.1486760623649517E-11</v>
+        <v>1.2644778895324139E-11</v>
       </c>
       <c r="S55" s="4">
-        <v>0.45904024184280157</v>
+        <v>1.3774404066225402E-11</v>
       </c>
       <c r="T55" s="4">
-        <v>0.85869988551546306</v>
+        <v>-3.2428748106927763E-11</v>
       </c>
       <c r="U55" s="4">
         <v>0</v>
@@ -4666,13 +4618,13 @@
         <v>47</v>
       </c>
       <c r="AC55" s="4">
-        <v>2.047570950074587E-11</v>
+        <v>5.059968689871488E-12</v>
       </c>
       <c r="AD55" s="4">
-        <v>2.4693052101026953E-11</v>
+        <v>5.2870704174134999E-12</v>
       </c>
       <c r="AE55" s="4">
-        <v>4.3927558092226171E-9</v>
+        <v>1.1911772783080502E-12</v>
       </c>
       <c r="AF55" s="4">
         <v>0</v>
@@ -4698,16 +4650,16 @@
         <v>3</v>
       </c>
       <c r="Q56" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R56" s="4">
-        <v>4.3868917418929311E-10</v>
+        <v>1.2170651611739473E-11</v>
       </c>
       <c r="S56" s="4">
-        <v>0.63012315189360835</v>
+        <v>1.4337946580185272E-11</v>
       </c>
       <c r="T56" s="4">
-        <v>1.0015575186726915</v>
+        <v>3.2428748106927763E-11</v>
       </c>
       <c r="U56" s="4">
         <v>0</v>
@@ -4722,19 +4674,19 @@
         <v>21</v>
       </c>
       <c r="AB56" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AC56" s="2">
-        <v>2.0829333377614697E-10</v>
+        <v>13.175526568001089</v>
       </c>
       <c r="AD56" s="2">
-        <v>66.195054551932131</v>
+        <v>179.80325802944179</v>
       </c>
       <c r="AE56" s="2">
-        <v>70.004945047088611</v>
+        <v>221.93960380999707</v>
       </c>
       <c r="AF56" s="2">
-        <v>205.96406208934195</v>
+        <v>205.9644946625082</v>
       </c>
     </row>
     <row r="57" spans="1:32" x14ac:dyDescent="0.25">
@@ -4760,13 +4712,13 @@
         <v>47</v>
       </c>
       <c r="R57" s="4">
-        <v>5.903776505124674E-12</v>
+        <v>1.3917968893762815E-11</v>
       </c>
       <c r="S57" s="4">
-        <v>8.612871556577102E-12</v>
+        <v>1.6632385267518946E-11</v>
       </c>
       <c r="T57" s="4">
-        <v>7.0441176549531463E-9</v>
+        <v>4.0189830051140349E-11</v>
       </c>
       <c r="U57" s="4">
         <v>0</v>
@@ -4784,13 +4736,13 @@
         <v>47</v>
       </c>
       <c r="AC57" s="4">
-        <v>2.0010667053907019E-11</v>
+        <v>5.1052072575671127E-12</v>
       </c>
       <c r="AD57" s="4">
-        <v>2.5778081774597114E-11</v>
+        <v>5.3031890122055374E-12</v>
       </c>
       <c r="AE57" s="4">
-        <v>4.3927558085180677E-9</v>
+        <v>1.1931710194224524E-12</v>
       </c>
       <c r="AF57" s="4">
         <v>0</v>
@@ -4804,13 +4756,13 @@
         <v>47</v>
       </c>
       <c r="R58" s="4">
-        <v>5.8970110009824453E-12</v>
+        <v>1.4517719398835576E-11</v>
       </c>
       <c r="S58" s="4">
-        <v>6.8541825405215636E-12</v>
+        <v>1.6046553849295938E-11</v>
       </c>
       <c r="T58" s="4">
-        <v>7.0441175988153181E-9</v>
+        <v>4.0267808821639312E-11</v>
       </c>
       <c r="U58" s="4">
         <v>0</v>
@@ -4828,13 +4780,13 @@
         <v>47</v>
       </c>
       <c r="AC58" s="4">
-        <v>1.0752021952426134E-11</v>
+        <v>2.4644016209060513E-12</v>
       </c>
       <c r="AD58" s="4">
-        <v>1.1751935139277799E-11</v>
+        <v>2.5218099335602128E-12</v>
       </c>
       <c r="AE58" s="4">
-        <v>2.3087739808257844E-9</v>
+        <v>7.6925393363691511E-13</v>
       </c>
       <c r="AF58" s="4">
         <v>0</v>
@@ -4854,19 +4806,19 @@
         <v>6</v>
       </c>
       <c r="Q59" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="R59" s="2">
-        <v>3.2875449546419018E-10</v>
+        <v>8.0512337398324196E-2</v>
       </c>
       <c r="S59" s="2">
-        <v>0.45904024294808132</v>
+        <v>1.246874583749237</v>
       </c>
       <c r="T59" s="2">
-        <v>0.46438083233845417</v>
+        <v>1.3945143547216163</v>
       </c>
       <c r="U59" s="2">
-        <v>1.3198580152854611</v>
+        <v>1.3198578195510144</v>
       </c>
       <c r="W59" s="8">
         <v>20.052629470825195</v>
@@ -4881,13 +4833,13 @@
         <v>47</v>
       </c>
       <c r="AC59" s="4">
-        <v>1.0634561555381351E-11</v>
+        <v>2.4790656685187089E-12</v>
       </c>
       <c r="AD59" s="4">
-        <v>1.2007903456954349E-11</v>
+        <v>2.5034828149644196E-12</v>
       </c>
       <c r="AE59" s="4">
-        <v>2.3087739808564955E-9</v>
+        <v>7.6948525393372149E-13</v>
       </c>
       <c r="AF59" s="4">
         <v>0</v>
@@ -4907,13 +4859,13 @@
         <v>47</v>
       </c>
       <c r="R60" s="4">
-        <v>5.9709552186181444E-12</v>
+        <v>1.2680551504672214E-11</v>
       </c>
       <c r="S60" s="4">
-        <v>7.2564216789905382E-12</v>
+        <v>1.7813605040189185E-11</v>
       </c>
       <c r="T60" s="4">
-        <v>7.0441176072904204E-9</v>
+        <v>4.0124572687015519E-11</v>
       </c>
       <c r="U60" s="4">
         <v>0</v>
@@ -4931,13 +4883,13 @@
         <v>47</v>
       </c>
       <c r="AC60" s="4">
-        <v>1.0634561640014852E-11</v>
+        <v>2.4790656422221202E-12</v>
       </c>
       <c r="AD60" s="4">
-        <v>1.200790353173799E-11</v>
+        <v>2.5034828170084087E-12</v>
       </c>
       <c r="AE60" s="4">
-        <v>2.3087739808558937E-9</v>
+        <v>7.6944790618841818E-13</v>
       </c>
       <c r="AF60" s="4">
         <v>0</v>
@@ -4957,13 +4909,13 @@
         <v>47</v>
       </c>
       <c r="R61" s="4">
-        <v>2.7393148779807853E-12</v>
+        <v>6.5533306066920425E-12</v>
       </c>
       <c r="S61" s="4">
-        <v>3.0999388264699843E-12</v>
+        <v>8.7102157187214043E-12</v>
       </c>
       <c r="T61" s="4">
-        <v>3.5171837924121209E-9</v>
+        <v>2.0129290348419385E-11</v>
       </c>
       <c r="U61" s="4">
         <v>0</v>
@@ -4981,13 +4933,13 @@
         <v>47</v>
       </c>
       <c r="AC61" s="4">
-        <v>1.0678010193018393E-11</v>
+        <v>2.4775337141081683E-12</v>
       </c>
       <c r="AD61" s="4">
-        <v>1.1832289947866958E-11</v>
+        <v>2.5049546344036323E-12</v>
       </c>
       <c r="AE61" s="4">
-        <v>2.3087739807357764E-9</v>
+        <v>7.6999498724031384E-13</v>
       </c>
       <c r="AF61" s="4">
         <v>0</v>
@@ -5007,13 +4959,13 @@
         <v>47</v>
       </c>
       <c r="R62" s="4">
-        <v>5.9709552197857098E-12</v>
+        <v>1.2680551504396659E-11</v>
       </c>
       <c r="S62" s="4">
-        <v>7.2564216782466444E-12</v>
+        <v>1.7813605040257738E-11</v>
       </c>
       <c r="T62" s="4">
-        <v>7.0441176072922253E-9</v>
+        <v>4.0124510394525957E-11</v>
       </c>
       <c r="U62" s="4">
         <v>0</v>
@@ -5031,13 +4983,13 @@
         <v>47</v>
       </c>
       <c r="AC62" s="4">
-        <v>7.1839244549785837E-12</v>
+        <v>1.6179491169780617E-12</v>
       </c>
       <c r="AD62" s="4">
-        <v>7.9860320586362745E-12</v>
+        <v>1.6330418489473431E-12</v>
       </c>
       <c r="AE62" s="4">
-        <v>1.5509893023952657E-9</v>
+        <v>2.3406048432992299E-13</v>
       </c>
       <c r="AF62" s="4">
         <v>0</v>
@@ -5057,13 +5009,13 @@
         <v>47</v>
       </c>
       <c r="R63" s="4">
-        <v>5.89701100051514E-12</v>
+        <v>1.4517719398524866E-11</v>
       </c>
       <c r="S63" s="4">
-        <v>6.8541825419860352E-12</v>
+        <v>1.6046553849737136E-11</v>
       </c>
       <c r="T63" s="4">
-        <v>7.0441175988157416E-9</v>
+        <v>4.0267871289916748E-11</v>
       </c>
       <c r="U63" s="4">
         <v>0</v>
@@ -5075,13 +5027,13 @@
         <v>47</v>
       </c>
       <c r="AC63" s="4">
-        <v>1.0678010382588027E-11</v>
+        <v>2.4775338095501544E-12</v>
       </c>
       <c r="AD63" s="4">
-        <v>1.1832290022401411E-11</v>
+        <v>2.5049546213289571E-12</v>
       </c>
       <c r="AE63" s="4">
-        <v>2.3087739807417399E-9</v>
+        <v>7.6999498718091516E-13</v>
       </c>
       <c r="AF63" s="4">
         <v>0</v>
@@ -5101,13 +5053,13 @@
         <v>47</v>
       </c>
       <c r="R64" s="4">
-        <v>5.2340183177712781E-12</v>
+        <v>1.2813900173947896E-11</v>
       </c>
       <c r="S64" s="4">
-        <v>6.5729259528503485E-12</v>
+        <v>1.7623354060547343E-11</v>
       </c>
       <c r="T64" s="4">
-        <v>7.0441175511529404E-9</v>
+        <v>4.0198977972645181E-11</v>
       </c>
       <c r="U64" s="4">
         <v>0</v>
@@ -5119,13 +5071,13 @@
         <v>47</v>
       </c>
       <c r="AC64" s="4">
-        <v>1.0752021974879332E-11</v>
+        <v>2.4644015765870324E-12</v>
       </c>
       <c r="AD64" s="4">
-        <v>1.1751935123488369E-11</v>
+        <v>2.5218099265531916E-12</v>
       </c>
       <c r="AE64" s="4">
-        <v>2.3087739808301333E-9</v>
+        <v>7.6921654130504197E-13</v>
       </c>
       <c r="AF64" s="4">
         <v>0</v>
@@ -5148,13 +5100,13 @@
         <v>47</v>
       </c>
       <c r="R65" s="4">
-        <v>5.2340183172113285E-12</v>
+        <v>1.281390017415738E-11</v>
       </c>
       <c r="S65" s="4">
-        <v>6.5729259542150414E-12</v>
+        <v>1.7623354060501641E-11</v>
       </c>
       <c r="T65" s="4">
-        <v>7.0441175511544359E-9</v>
+        <v>4.0199040280166683E-11</v>
       </c>
       <c r="U65" s="4">
         <v>0</v>
@@ -5166,13 +5118,13 @@
         <v>47</v>
       </c>
       <c r="AC65" s="4">
-        <v>2.0010667190276428E-11</v>
+        <v>5.1052072341871629E-12</v>
       </c>
       <c r="AD65" s="4">
-        <v>2.5778081870291984E-11</v>
+        <v>5.3031890080053211E-12</v>
       </c>
       <c r="AE65" s="4">
-        <v>4.392755808513653E-9</v>
+        <v>1.1930916565667904E-12</v>
       </c>
       <c r="AF65" s="4">
         <v>0</v>
@@ -5192,13 +5144,13 @@
         <v>47</v>
       </c>
       <c r="R66" s="4">
-        <v>3.2006087841159239E-12</v>
+        <v>8.6196092707465467E-12</v>
       </c>
       <c r="S66" s="4">
-        <v>2.7662123201447122E-12</v>
+        <v>8.045633195499892E-12</v>
       </c>
       <c r="T66" s="4">
-        <v>3.5171837812213255E-9</v>
+        <v>2.0106895858132024E-11</v>
       </c>
       <c r="U66" s="4">
         <v>0</v>
@@ -5210,13 +5162,13 @@
         <v>47</v>
       </c>
       <c r="AC66" s="4">
-        <v>1.086556333140866E-11</v>
+        <v>2.4912960939659673E-12</v>
       </c>
       <c r="AD66" s="4">
-        <v>1.1830412706082513E-11</v>
+        <v>2.5031855408401151E-12</v>
       </c>
       <c r="AE66" s="4">
-        <v>2.3087739807139706E-9</v>
+        <v>7.6972428280738068E-13</v>
       </c>
       <c r="AF66" s="4">
         <v>0</v>
@@ -5236,13 +5188,13 @@
         <v>47</v>
       </c>
       <c r="R67" s="4">
-        <v>2.7375502972638218E-12</v>
+        <v>7.1171724282121643E-12</v>
       </c>
       <c r="S67" s="4">
-        <v>3.1004350583961531E-12</v>
+        <v>8.17668337547992E-12</v>
       </c>
       <c r="T67" s="4">
-        <v>3.517183794536786E-9</v>
+        <v>2.0094364305902187E-11</v>
       </c>
       <c r="U67" s="4">
         <v>0</v>
@@ -5251,16 +5203,16 @@
         <v>46</v>
       </c>
       <c r="AB67" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="AD67" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="AE67" s="2" t="s">
         <v>49</v>
       </c>
       <c r="AF67" s="2" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
     </row>
     <row r="68" spans="1:32" x14ac:dyDescent="0.25">
@@ -5277,13 +5229,13 @@
         <v>47</v>
       </c>
       <c r="R68" s="4">
-        <v>2.8941677557144669E-12</v>
+        <v>7.8123551672296496E-12</v>
       </c>
       <c r="S68" s="4">
-        <v>3.2416959562389951E-12</v>
+        <v>7.5124005738552035E-12</v>
       </c>
       <c r="T68" s="4">
-        <v>3.5171838057273887E-9</v>
+        <v>2.011851740338571E-11</v>
       </c>
       <c r="U68" s="4">
         <v>0</v>
@@ -5327,16 +5279,16 @@
         <v>46</v>
       </c>
       <c r="Q69" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="R69" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="T69" s="2" t="s">
         <v>49</v>
       </c>
       <c r="U69" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="W69" s="2" t="s">
         <v>10</v>
@@ -5357,13 +5309,13 @@
         <v>50</v>
       </c>
       <c r="AC69" s="4">
-        <v>2.7613599220002825E-10</v>
+        <v>4.3626560903008428E-11</v>
       </c>
       <c r="AD69" s="4">
-        <v>3.4107807042267797E-3</v>
+        <v>8.9949665375762544E-3</v>
       </c>
       <c r="AE69" s="2">
-        <v>3.9475450160860268E-3</v>
+        <v>3.639804444659846E-5</v>
       </c>
       <c r="AF69" s="2">
         <v>0</v>
@@ -5414,13 +5366,13 @@
         <v>50</v>
       </c>
       <c r="AC70" s="4">
-        <v>5.5173510480553109E-11</v>
+        <v>4.2957433177113829E-11</v>
       </c>
       <c r="AD70" s="4">
-        <v>3.1049412043609162E-3</v>
+        <v>8.4338440798932008E-3</v>
       </c>
       <c r="AE70" s="2">
-        <v>1.7556110728078644E-3</v>
+        <v>3.4072601872064776E-5</v>
       </c>
       <c r="AF70" s="2">
         <v>0</v>
@@ -5443,16 +5395,16 @@
         <v>1</v>
       </c>
       <c r="Q71" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R71" s="4">
-        <v>1.2638939689167759E-11</v>
+        <v>2.5686113208362598E-12</v>
       </c>
       <c r="S71" s="4">
-        <v>38.977279780102947</v>
+        <v>2.5805218979446693E-12</v>
       </c>
       <c r="T71" s="4">
-        <v>44.402367292788867</v>
+        <v>4.6726746160871697E-14</v>
       </c>
       <c r="U71" s="4">
         <v>0</v>
@@ -5476,13 +5428,13 @@
         <v>47</v>
       </c>
       <c r="AC71" s="4">
-        <v>5.5015412557406818E-13</v>
+        <v>7.0337182588950219E-13</v>
       </c>
       <c r="AD71" s="4">
-        <v>1.3905160163121521E-12</v>
+        <v>8.2207066281345574E-13</v>
       </c>
       <c r="AE71" s="4">
-        <v>2.6406312310340954E-9</v>
+        <v>-5.8076511994079972E-15</v>
       </c>
       <c r="AF71" s="4">
         <v>0</v>
@@ -5505,16 +5457,16 @@
         <v>2</v>
       </c>
       <c r="Q72" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R72" s="4">
-        <v>6.99315266813526E-11</v>
+        <v>2.6146630605673614E-12</v>
       </c>
       <c r="S72" s="4">
-        <v>75.554525899762737</v>
+        <v>2.5439125699769321E-12</v>
       </c>
       <c r="T72" s="4">
-        <v>68.783806090649406</v>
+        <v>4.4668854299233058E-14</v>
       </c>
       <c r="U72" s="4">
         <v>0</v>
@@ -5538,16 +5490,16 @@
         <v>50</v>
       </c>
       <c r="AC72" s="4">
-        <v>2.45916421931679E-10</v>
+        <v>9.440824294280536E-11</v>
       </c>
       <c r="AD72" s="4">
-        <v>1.0014038339304578E-3</v>
+        <v>2.7200884175569719E-3</v>
       </c>
       <c r="AE72" s="2">
-        <v>5.2799739366766768E-4</v>
+        <v>1.7659992541176724E-5</v>
       </c>
       <c r="AF72" s="2">
-        <v>0</v>
+        <v>2.0782576018547909E-3</v>
       </c>
     </row>
     <row r="73" spans="1:32" x14ac:dyDescent="0.25">
@@ -5567,16 +5519,16 @@
         <v>3</v>
       </c>
       <c r="Q73" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R73" s="4">
-        <v>1.1156844144996111E-10</v>
+        <v>2.3413257593774102E-12</v>
       </c>
       <c r="S73" s="4">
-        <v>100.80934479431363</v>
+        <v>2.9674279242990012E-12</v>
       </c>
       <c r="T73" s="4">
-        <v>148.70263606902606</v>
+        <v>3.9544214075572736E-14</v>
       </c>
       <c r="U73" s="4">
         <v>0</v>
@@ -5600,13 +5552,13 @@
         <v>50</v>
       </c>
       <c r="AC73" s="4">
-        <v>9.2456296620103485E-12</v>
+        <v>3.8483198508959633E-11</v>
       </c>
       <c r="AD73" s="4">
-        <v>4.0249228717559593E-3</v>
+        <v>9.3450313922569406E-3</v>
       </c>
       <c r="AE73" s="2">
-        <v>4.9519235050572248E-3</v>
+        <v>5.1388698863293752E-4</v>
       </c>
       <c r="AF73" s="2">
         <v>0</v>
@@ -5632,13 +5584,13 @@
         <v>47</v>
       </c>
       <c r="R74" s="4">
-        <v>1.7542496348447188E-11</v>
+        <v>2.3569465507735387E-12</v>
       </c>
       <c r="S74" s="4">
-        <v>1.8688492216395512E-11</v>
+        <v>2.4544281076085904E-12</v>
       </c>
       <c r="T74" s="4">
-        <v>5.2806492320263175E-9</v>
+        <v>-3.4447236898156867E-13</v>
       </c>
       <c r="U74" s="4">
         <v>0</v>
@@ -5650,13 +5602,13 @@
         <v>47</v>
       </c>
       <c r="AC74" s="4">
-        <v>8.3128954367417658E-13</v>
+        <v>6.5960496224147877E-13</v>
       </c>
       <c r="AD74" s="4">
-        <v>7.7450052238810641E-13</v>
+        <v>7.5307083245934857E-13</v>
       </c>
       <c r="AE74" s="4">
-        <v>2.6405796419571731E-9</v>
+        <v>4.101340052845503E-16</v>
       </c>
       <c r="AF74" s="4">
         <v>0</v>
@@ -5667,16 +5619,16 @@
         <v>5</v>
       </c>
       <c r="Q75" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R75" s="4">
-        <v>1.1557013882598002E-11</v>
+        <v>2.5918486135924727E-12</v>
       </c>
       <c r="S75" s="4">
-        <v>38.97727977028616</v>
+        <v>2.5969739134506973E-12</v>
       </c>
       <c r="T75" s="4">
-        <v>29.86999216291877</v>
+        <v>5.5545989234176083E-14</v>
       </c>
       <c r="U75" s="4">
         <v>0</v>
@@ -5694,13 +5646,13 @@
         <v>50</v>
       </c>
       <c r="AC75" s="4">
-        <v>2.575562683367708E-10</v>
+        <v>8.9757569676566217E-11</v>
       </c>
       <c r="AD75" s="4">
-        <v>1.0014049763422224E-3</v>
+        <v>2.7200885890171478E-3</v>
       </c>
       <c r="AE75" s="2">
-        <v>3.7698006800130994E-4</v>
+        <v>1.7448680127616626E-5</v>
       </c>
       <c r="AF75" s="2">
         <v>0</v>
@@ -5717,16 +5669,16 @@
         <v>6</v>
       </c>
       <c r="Q76" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R76" s="4">
-        <v>2.7521433636405712E-10</v>
+        <v>2.4115928782713998E-12</v>
       </c>
       <c r="S76" s="4">
-        <v>75.55452581694091</v>
+        <v>2.8164923336273774E-12</v>
       </c>
       <c r="T76" s="4">
-        <v>46.655378643686603</v>
+        <v>4.831714669150243E-14</v>
       </c>
       <c r="U76" s="4">
         <v>0</v>
@@ -5744,13 +5696,13 @@
         <v>47</v>
       </c>
       <c r="AC76" s="4">
-        <v>7.6796091961515036E-13</v>
+        <v>6.6035212797365909E-13</v>
       </c>
       <c r="AD76" s="4">
-        <v>8.2682242521523063E-13</v>
+        <v>8.537964164654661E-13</v>
       </c>
       <c r="AE76" s="4">
-        <v>2.6405884588251902E-9</v>
+        <v>4.130745132272349E-16</v>
       </c>
       <c r="AF76" s="4">
         <v>0</v>
@@ -5770,13 +5722,13 @@
         <v>47</v>
       </c>
       <c r="R77" s="4">
-        <v>1.6280215846832985E-11</v>
+        <v>2.1888452269274237E-12</v>
       </c>
       <c r="S77" s="4">
-        <v>2.044500474726309E-11</v>
+        <v>2.745277659214265E-12</v>
       </c>
       <c r="T77" s="4">
-        <v>5.2806492320786094E-9</v>
+        <v>3.9570096815246457E-14</v>
       </c>
       <c r="U77" s="4">
         <v>0</v>
@@ -5794,13 +5746,13 @@
         <v>47</v>
       </c>
       <c r="AC77" s="4">
-        <v>8.9030472176266414E-13</v>
+        <v>7.2310001830933067E-13</v>
       </c>
       <c r="AD77" s="4">
-        <v>8.9194579437326065E-13</v>
+        <v>7.3834846352790267E-13</v>
       </c>
       <c r="AE77" s="4">
-        <v>2.6401441497506667E-9</v>
+        <v>3.7214188918255415E-16</v>
       </c>
       <c r="AF77" s="4">
         <v>0</v>
@@ -5820,13 +5772,13 @@
         <v>47</v>
       </c>
       <c r="R78" s="4">
-        <v>1.729241804606645E-11</v>
+        <v>2.4463330052233724E-12</v>
       </c>
       <c r="S78" s="4">
-        <v>1.9079622898059653E-11</v>
+        <v>2.3833834981096087E-12</v>
       </c>
       <c r="T78" s="4">
-        <v>5.2806492311725472E-9</v>
+        <v>5.557183660902751E-14</v>
       </c>
       <c r="U78" s="4">
         <v>0</v>
@@ -5844,13 +5796,13 @@
         <v>50</v>
       </c>
       <c r="AC78" s="4">
-        <v>1.6059162799142575E-10</v>
+        <v>1.3595720771969776E-10</v>
       </c>
       <c r="AD78" s="4">
-        <v>1.0014051092701191E-3</v>
+        <v>2.7200892429323168E-3</v>
       </c>
       <c r="AE78" s="2">
-        <v>3.3250176278863609E-4</v>
+        <v>3.1452980517306904E-5</v>
       </c>
       <c r="AF78" s="2">
         <v>0</v>
@@ -5867,16 +5819,16 @@
         <v>9</v>
       </c>
       <c r="Q79" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R79" s="4">
-        <v>1.2046464682693977E-11</v>
+        <v>2.4339313657964754E-12</v>
       </c>
       <c r="S79" s="4">
-        <v>38.977279775164575</v>
+        <v>2.8104422981614631E-12</v>
       </c>
       <c r="T79" s="4">
-        <v>36.267413337859985</v>
+        <v>5.0397429795432578E-14</v>
       </c>
       <c r="U79" s="4">
         <v>0</v>
@@ -5894,13 +5846,13 @@
         <v>50</v>
       </c>
       <c r="AC79" s="4">
-        <v>4.0466711260751871E-11</v>
+        <v>3.4692472244689477E-11</v>
       </c>
       <c r="AD79" s="4">
-        <v>3.4107806631071768E-3</v>
+        <v>9.1442770192580909E-3</v>
       </c>
       <c r="AE79" s="2">
-        <v>2.1829513114258467E-3</v>
+        <v>3.6309034211127029E-3</v>
       </c>
       <c r="AF79" s="2">
         <v>0</v>
@@ -5920,13 +5872,13 @@
         <v>47</v>
       </c>
       <c r="R80" s="4">
-        <v>1.7238899289444766E-11</v>
+        <v>2.4760579354584442E-12</v>
       </c>
       <c r="S80" s="4">
-        <v>1.9099643576872552E-11</v>
+        <v>2.3915164337731905E-12</v>
       </c>
       <c r="T80" s="4">
-        <v>5.2806492317492327E-9</v>
+        <v>4.4694739982283587E-14</v>
       </c>
       <c r="U80" s="4">
         <v>0</v>
@@ -5944,13 +5896,13 @@
         <v>47</v>
       </c>
       <c r="AC80" s="4">
-        <v>8.2157860520790674E-13</v>
+        <v>6.6333317740011945E-13</v>
       </c>
       <c r="AD80" s="4">
-        <v>8.3084475691043166E-13</v>
+        <v>7.2034098007200565E-13</v>
       </c>
       <c r="AE80" s="4">
-        <v>2.6404744124459926E-9</v>
+        <v>3.9740155446611967E-16</v>
       </c>
       <c r="AF80" s="4">
         <v>0</v>
@@ -5967,19 +5919,19 @@
         <v>11</v>
       </c>
       <c r="Q81" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="R81" s="2">
-        <v>2.7672753984917182E-10</v>
+        <v>14.597125445989969</v>
       </c>
       <c r="S81" s="2">
-        <v>38.97727975404888</v>
+        <v>105.87259037120187</v>
       </c>
       <c r="T81" s="2">
-        <v>26.317907623326231</v>
+        <v>188.80913822306064</v>
       </c>
       <c r="U81" s="2">
-        <v>160.09325491349443</v>
+        <v>160.09368550653417</v>
       </c>
       <c r="W81" s="8">
         <v>32.099002838134766</v>
@@ -5994,13 +5946,13 @@
         <v>47</v>
       </c>
       <c r="AC81" s="4">
-        <v>8.9595455138866564E-13</v>
+        <v>7.4100140474013121E-13</v>
       </c>
       <c r="AD81" s="4">
-        <v>8.9962440293845035E-13</v>
+        <v>7.4787750963993379E-13</v>
       </c>
       <c r="AE81" s="4">
-        <v>2.6401080955169782E-9</v>
+        <v>3.7263657993514094E-16</v>
       </c>
       <c r="AF81" s="4">
         <v>0</v>
@@ -6020,13 +5972,13 @@
         <v>47</v>
       </c>
       <c r="R82" s="4">
-        <v>1.7253453703254134E-11</v>
+        <v>2.1607884360943992E-12</v>
       </c>
       <c r="S82" s="4">
-        <v>1.9143588904960484E-11</v>
+        <v>2.7341937018754646E-12</v>
       </c>
       <c r="T82" s="4">
-        <v>5.2806492318049483E-9</v>
+        <v>4.8342989690892342E-14</v>
       </c>
       <c r="U82" s="4">
         <v>0</v>
@@ -6044,13 +5996,13 @@
         <v>47</v>
       </c>
       <c r="AC82" s="4">
-        <v>8.7466029612357114E-13</v>
+        <v>7.1816320944072024E-13</v>
       </c>
       <c r="AD82" s="4">
-        <v>9.0332875217639826E-13</v>
+        <v>7.3033165916408472E-13</v>
       </c>
       <c r="AE82" s="4">
-        <v>2.6401496646729426E-9</v>
+        <v>3.7201549320248586E-16</v>
       </c>
       <c r="AF82" s="4">
         <v>0</v>
@@ -6070,13 +6022,13 @@
         <v>47</v>
       </c>
       <c r="R83" s="4">
-        <v>1.6335573180578403E-11</v>
+        <v>2.3206984800836209E-12</v>
       </c>
       <c r="S83" s="4">
-        <v>2.0714519165043111E-11</v>
+        <v>2.5565366446851687E-12</v>
       </c>
       <c r="T83" s="4">
-        <v>5.2806492312304349E-9</v>
+        <v>5.911679878462139E-14</v>
       </c>
       <c r="U83" s="4">
         <v>0</v>
@@ -6094,13 +6046,13 @@
         <v>47</v>
       </c>
       <c r="AC83" s="4">
-        <v>8.4428994699911496E-13</v>
+        <v>7.3223236951077186E-13</v>
       </c>
       <c r="AD83" s="4">
-        <v>1.0432175043274501E-12</v>
+        <v>7.4181231864161185E-13</v>
       </c>
       <c r="AE83" s="4">
-        <v>2.6401186200114943E-9</v>
+        <v>3.7451436356940375E-16</v>
       </c>
       <c r="AF83" s="4">
         <v>0</v>
@@ -6120,13 +6072,13 @@
         <v>47</v>
       </c>
       <c r="R84" s="4">
-        <v>1.7203620320289605E-11</v>
+        <v>2.287609128847186E-12</v>
       </c>
       <c r="S84" s="4">
-        <v>1.919496544257994E-11</v>
+        <v>2.5991730884776781E-12</v>
       </c>
       <c r="T84" s="4">
-        <v>5.2806492315052723E-9</v>
+        <v>5.0423274091751824E-14</v>
       </c>
       <c r="U84" s="4">
         <v>0</v>
@@ -6144,13 +6096,13 @@
         <v>47</v>
       </c>
       <c r="AC84" s="4">
-        <v>1.3559703858628461E-12</v>
+        <v>7.7817732343565595E-13</v>
       </c>
       <c r="AD84" s="4">
-        <v>7.8465198218873976E-13</v>
+        <v>7.3933288191800134E-13</v>
       </c>
       <c r="AE84" s="4">
-        <v>2.6400574667712148E-9</v>
+        <v>3.7623311068390655E-16</v>
       </c>
       <c r="AF84" s="4">
         <v>0</v>
@@ -6170,13 +6122,13 @@
         <v>47</v>
       </c>
       <c r="R85" s="4">
-        <v>1.7204984497696878E-11</v>
+        <v>2.4415536902804488E-12</v>
       </c>
       <c r="S85" s="4">
-        <v>1.9136012714238014E-11</v>
+        <v>2.3425323367625687E-12</v>
       </c>
       <c r="T85" s="4">
-        <v>5.2806492314512731E-9</v>
+        <v>4.6752633007745556E-14</v>
       </c>
       <c r="U85" s="4">
         <v>0</v>
@@ -6194,16 +6146,16 @@
         <v>50</v>
       </c>
       <c r="AC85" s="4">
-        <v>1.9234321915868044E-10</v>
+        <v>1.3531674224723989E-10</v>
       </c>
       <c r="AD85" s="4">
-        <v>1.001408543112509E-3</v>
+        <v>2.7200881645781144E-3</v>
       </c>
       <c r="AE85" s="2">
-        <v>3.1760433816034801E-4</v>
+        <v>2.7768475485326553E-3</v>
       </c>
       <c r="AF85" s="2">
-        <v>5.4360063061752867E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="12:32" x14ac:dyDescent="0.25">
@@ -6217,16 +6169,16 @@
         <v>46</v>
       </c>
       <c r="Q86" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R86" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="T86" s="2" t="s">
         <v>49</v>
       </c>
       <c r="U86" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="W86" s="8">
         <v>27.809391021728516</v>
@@ -6241,16 +6193,16 @@
         <v>50</v>
       </c>
       <c r="AC86" s="2">
-        <v>4.1638986394073749E-11</v>
+        <v>4.0012403521920901E-11</v>
       </c>
       <c r="AD86" s="2">
-        <v>3.1049398928062748E-3</v>
+        <v>8.4338427795097627E-3</v>
       </c>
       <c r="AE86" s="2">
-        <v>9.6897385572386279E-4</v>
+        <v>3.1545264393710252E-3</v>
       </c>
       <c r="AF86" s="2">
-        <v>0</v>
+        <v>7.6636188563223113E-3</v>
       </c>
     </row>
     <row r="87" spans="12:32" x14ac:dyDescent="0.25">
@@ -6267,13 +6219,13 @@
         <v>50</v>
       </c>
       <c r="AC87" s="4">
-        <v>3.4388480124871365E-11</v>
+        <v>3.8762757122920938E-11</v>
       </c>
       <c r="AD87" s="4">
-        <v>3.1049423837348489E-3</v>
+        <v>8.433844939920691E-3</v>
       </c>
       <c r="AE87" s="2">
-        <v>1.2189383085550946E-3</v>
+        <v>3.6940714234467951E-5</v>
       </c>
       <c r="AF87" s="2">
         <v>0</v>
@@ -6293,13 +6245,13 @@
         <v>47</v>
       </c>
       <c r="AC88" s="4">
-        <v>8.4228393394320513E-13</v>
+        <v>6.8964692289443945E-13</v>
       </c>
       <c r="AD88" s="4">
-        <v>7.7183678802974156E-13</v>
+        <v>6.9956097243569896E-13</v>
       </c>
       <c r="AE88" s="4">
-        <v>2.6405218745341791E-9</v>
+        <v>3.9360036318966821E-16</v>
       </c>
       <c r="AF88" s="4">
         <v>0</v>
@@ -6319,13 +6271,13 @@
         <v>47</v>
       </c>
       <c r="AC89" s="4">
-        <v>9.0611698029589952E-13</v>
+        <v>6.5078562538038292E-13</v>
       </c>
       <c r="AD89" s="4">
-        <v>8.2764164865817011E-13</v>
+        <v>9.0316527325768356E-13</v>
       </c>
       <c r="AE89" s="4">
-        <v>2.6401767826986892E-9</v>
+        <v>3.6930673412144115E-16</v>
       </c>
       <c r="AF89" s="4">
         <v>0</v>
@@ -6345,13 +6297,13 @@
         <v>50</v>
       </c>
       <c r="AC90" s="4">
-        <v>3.5720521479576015E-10</v>
+        <v>1.1201593118629865E-10</v>
       </c>
       <c r="AD90" s="4">
-        <v>1.0014059841603959E-3</v>
+        <v>2.7200896724098845E-3</v>
       </c>
       <c r="AE90" s="2">
-        <v>3.2056879910279785E-4</v>
+        <v>3.1841378751949287E-5</v>
       </c>
       <c r="AF90" s="2">
         <v>0</v>
@@ -6371,13 +6323,13 @@
         <v>47</v>
       </c>
       <c r="AC91" s="4">
-        <v>7.957447530668827E-13</v>
+        <v>6.3667925977333083E-13</v>
       </c>
       <c r="AD91" s="4">
-        <v>8.1846865750415977E-13</v>
+        <v>8.053883640621709E-13</v>
       </c>
       <c r="AE91" s="4">
-        <v>2.6405384582923132E-9</v>
+        <v>4.1297640447229753E-16</v>
       </c>
       <c r="AF91" s="4">
         <v>0</v>
@@ -6397,13 +6349,13 @@
         <v>47</v>
       </c>
       <c r="AC92" s="4">
-        <v>8.5156005369734516E-13</v>
+        <v>7.0604221358253805E-13</v>
       </c>
       <c r="AD92" s="4">
-        <v>1.0571288170858591E-12</v>
+        <v>7.7173867559357696E-13</v>
       </c>
       <c r="AE92" s="4">
-        <v>2.6400795889642639E-9</v>
+        <v>3.7433563435886324E-16</v>
       </c>
       <c r="AF92" s="4">
         <v>0</v>
@@ -6423,13 +6375,13 @@
         <v>47</v>
       </c>
       <c r="AC93" s="4">
-        <v>8.4689938820878837E-13</v>
+        <v>7.1225269363791628E-13</v>
       </c>
       <c r="AD93" s="4">
-        <v>1.0577582788461184E-12</v>
+        <v>7.6020769931281277E-13</v>
       </c>
       <c r="AE93" s="4">
-        <v>2.640084385097646E-9</v>
+        <v>3.7433476461396997E-16</v>
       </c>
       <c r="AF93" s="4">
         <v>0</v>
@@ -6449,13 +6401,13 @@
         <v>50</v>
       </c>
       <c r="AC94" s="2">
-        <v>1.7253683136766378E-10</v>
+        <v>1.8989300760973674E-10</v>
       </c>
       <c r="AD94" s="2">
-        <v>1.0014085262482139E-3</v>
+        <v>2.7200888531593854E-3</v>
       </c>
       <c r="AE94" s="2">
-        <v>3.4391100745174871E-4</v>
+        <v>3.2967767110353007E-5</v>
       </c>
       <c r="AF94" s="2">
         <v>0</v>
@@ -6475,13 +6427,13 @@
         <v>47</v>
       </c>
       <c r="AC95" s="4">
-        <v>7.809558662890187E-13</v>
+        <v>6.9754423964644917E-13</v>
       </c>
       <c r="AD95" s="4">
-        <v>9.8021374574883617E-13</v>
+        <v>7.1221974388224997E-13</v>
       </c>
       <c r="AE95" s="4">
-        <v>2.6404366368399388E-9</v>
+        <v>3.9603153898622062E-16</v>
       </c>
       <c r="AF95" s="4">
         <v>0</v>
@@ -6495,13 +6447,13 @@
         <v>50</v>
       </c>
       <c r="AC96" s="4">
-        <v>1.5538951492779647E-10</v>
+        <v>1.2794729270977036E-10</v>
       </c>
       <c r="AD96" s="4">
-        <v>1.001404760938509E-3</v>
+        <v>2.7200893863542357E-3</v>
       </c>
       <c r="AE96" s="2">
-        <v>3.4452187690500589E-4</v>
+        <v>1.7767212777716373E-5</v>
       </c>
       <c r="AF96" s="2">
         <v>0</v>
@@ -6515,13 +6467,13 @@
         <v>47</v>
       </c>
       <c r="AC97" s="4">
-        <v>8.0753941474186068E-13</v>
+        <v>6.7303860651406563E-13</v>
       </c>
       <c r="AD97" s="4">
-        <v>8.3655540415563503E-13</v>
+        <v>7.1275114990692605E-13</v>
       </c>
       <c r="AE97" s="4">
-        <v>2.6404825104447293E-9</v>
+        <v>3.9891425011414032E-16</v>
       </c>
       <c r="AF97" s="4">
         <v>0</v>
@@ -6535,13 +6487,13 @@
         <v>50</v>
       </c>
       <c r="AC98" s="4">
-        <v>3.2140915809201735E-10</v>
+        <v>1.0647954792742049E-10</v>
       </c>
       <c r="AD98" s="4">
-        <v>1.0014059995641627E-3</v>
+        <v>2.7200897114591296E-3</v>
       </c>
       <c r="AE98" s="2">
-        <v>3.7984750692580591E-4</v>
+        <v>1.7963855837454566E-5</v>
       </c>
       <c r="AF98" s="2">
         <v>0</v>
@@ -6555,13 +6507,13 @@
         <v>50</v>
       </c>
       <c r="AC99" s="4">
-        <v>3.7179160668411618E-11</v>
+        <v>3.2912991976016946E-11</v>
       </c>
       <c r="AD99" s="4">
-        <v>3.104942659464518E-3</v>
+        <v>8.4338449810891416E-3</v>
       </c>
       <c r="AE99" s="2">
-        <v>1.2701825165815615E-3</v>
+        <v>5.1627991155802765E-4</v>
       </c>
       <c r="AF99" s="2">
         <v>0</v>
@@ -6572,16 +6524,16 @@
         <v>46</v>
       </c>
       <c r="AB100" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="AD100" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="AE100" s="2" t="s">
         <v>49</v>
       </c>
       <c r="AF100" s="2" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
     </row>
     <row r="101" spans="23:32" x14ac:dyDescent="0.25">
@@ -6631,13 +6583,13 @@
         <v>47</v>
       </c>
       <c r="AC102" s="4">
-        <v>2.9337713565845167E-13</v>
+        <v>5.7830262526719021E-13</v>
       </c>
       <c r="AD102" s="4">
-        <v>3.8855689840382126E-13</v>
+        <v>7.2083915784553659E-13</v>
       </c>
       <c r="AE102" s="4">
-        <v>3.5233435862829192E-9</v>
+        <v>-3.3211786425313321E-11</v>
       </c>
       <c r="AF102" s="4">
         <v>0</v>
@@ -6660,16 +6612,16 @@
         <v>2</v>
       </c>
       <c r="AB103" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="AC103" s="4">
-        <v>5.509529324882491E-11</v>
+        <v>4.5712020610531599E-13</v>
       </c>
       <c r="AD103" s="4">
-        <v>3.2569901097126056E-2</v>
+        <v>5.0613697753308591E-13</v>
       </c>
       <c r="AE103" s="4">
-        <v>3.8017539676308144E-2</v>
+        <v>2.3519232409363888E-12</v>
       </c>
       <c r="AF103" s="4">
         <v>0</v>
@@ -6692,16 +6644,16 @@
         <v>3</v>
       </c>
       <c r="AB104" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="AC104" s="4">
-        <v>1.2872637115791884E-10</v>
+        <v>4.4995477257683543E-13</v>
       </c>
       <c r="AD104" s="4">
-        <v>3.6472008071095616E-2</v>
+        <v>5.251023096629595E-13</v>
       </c>
       <c r="AE104" s="4">
-        <v>6.5460849358687359E-2</v>
+        <v>2.3408796935238502E-12</v>
       </c>
       <c r="AF104" s="4">
         <v>0</v>
@@ -6727,13 +6679,13 @@
         <v>47</v>
       </c>
       <c r="AC105" s="4">
-        <v>2.9337713566140496E-13</v>
+        <v>5.7830262503149544E-13</v>
       </c>
       <c r="AD105" s="4">
-        <v>3.885568983712801E-13</v>
+        <v>7.2083915781702471E-13</v>
       </c>
       <c r="AE105" s="4">
-        <v>3.5233435862831851E-9</v>
+        <v>3.0206590244156369E-12</v>
       </c>
       <c r="AF105" s="4">
         <v>0</v>
@@ -6756,16 +6708,16 @@
         <v>5</v>
       </c>
       <c r="AB106" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="AC106" s="4">
-        <v>1.0907454691509207E-10</v>
+        <v>4.5758410752355876E-13</v>
       </c>
       <c r="AD106" s="4">
-        <v>4.0925510285200112E-2</v>
+        <v>5.0642484404939449E-13</v>
       </c>
       <c r="AE106" s="4">
-        <v>3.9005113048545974E-2</v>
+        <v>2.3522962371661274E-12</v>
       </c>
       <c r="AF106" s="4">
         <v>0</v>
@@ -6779,13 +6731,13 @@
         <v>47</v>
       </c>
       <c r="AC107" s="4">
-        <v>2.8126081345790425E-13</v>
+        <v>5.3884778545059683E-13</v>
       </c>
       <c r="AD107" s="4">
-        <v>3.5900927043919438E-13</v>
+        <v>7.7098927307376546E-13</v>
       </c>
       <c r="AE107" s="4">
-        <v>3.5233428063906791E-9</v>
+        <v>2.9885422758772511E-12</v>
       </c>
       <c r="AF107" s="4">
         <v>0</v>
@@ -6805,13 +6757,13 @@
         <v>47</v>
       </c>
       <c r="AC108" s="4">
-        <v>2.9353296614826389E-13</v>
+        <v>5.9207118505937472E-13</v>
       </c>
       <c r="AD108" s="4">
-        <v>3.337499177924904E-13</v>
+        <v>6.6710663129513733E-13</v>
       </c>
       <c r="AE108" s="4">
-        <v>3.5233422470371679E-9</v>
+        <v>3.0241770788022468E-12</v>
       </c>
       <c r="AF108" s="4">
         <v>0</v>
@@ -6828,16 +6780,16 @@
         <v>8</v>
       </c>
       <c r="AB109" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="AC109" s="4">
-        <v>2.1613349003659012E-11</v>
+        <v>4.6157877487324612E-13</v>
       </c>
       <c r="AD109" s="4">
-        <v>3.6472007897004138E-2</v>
+        <v>5.0872566524974618E-13</v>
       </c>
       <c r="AE109" s="4">
-        <v>2.4443958045069436E-2</v>
+        <v>2.3500582788370186E-12</v>
       </c>
       <c r="AF109" s="4">
         <v>0</v>
@@ -6857,13 +6809,13 @@
         <v>47</v>
       </c>
       <c r="AC110" s="4">
-        <v>1.498360589953612E-13</v>
+        <v>3.1099189059696699E-13</v>
       </c>
       <c r="AD110" s="4">
-        <v>1.4959713450952201E-13</v>
+        <v>3.1553111249919403E-13</v>
       </c>
       <c r="AE110" s="4">
-        <v>1.7573097922766241E-9</v>
+        <v>1.5074862899337446E-12</v>
       </c>
       <c r="AF110" s="4">
         <v>0</v>
@@ -6883,13 +6835,13 @@
         <v>47</v>
       </c>
       <c r="AC111" s="4">
-        <v>2.769135977598559E-13</v>
+        <v>5.6283712706897703E-13</v>
       </c>
       <c r="AD111" s="4">
-        <v>3.3484430206352671E-13</v>
+        <v>6.9261050860566165E-13</v>
       </c>
       <c r="AE111" s="4">
-        <v>3.523340942789423E-9</v>
+        <v>3.0163658421481823E-12</v>
       </c>
       <c r="AF111" s="4">
         <v>0</v>
@@ -6909,13 +6861,13 @@
         <v>47</v>
       </c>
       <c r="AC112" s="4">
-        <v>2.8854643734770949E-13</v>
+        <v>5.9186088893212265E-13</v>
       </c>
       <c r="AD112" s="4">
-        <v>3.4604813437555895E-13</v>
+        <v>6.7393853416414722E-13</v>
       </c>
       <c r="AE112" s="4">
-        <v>3.5233422818780687E-9</v>
+        <v>3.024428958394958E-12</v>
       </c>
       <c r="AF112" s="4">
         <v>0</v>
@@ -6935,13 +6887,13 @@
         <v>47</v>
       </c>
       <c r="AC113" s="4">
-        <v>2.8258924815651964E-13</v>
+        <v>5.7233543142877436E-13</v>
       </c>
       <c r="AD113" s="4">
-        <v>3.2861162264500335E-13</v>
+        <v>6.9705379852284315E-13</v>
       </c>
       <c r="AE113" s="4">
-        <v>3.5233414672364736E-9</v>
+        <v>3.0214369210014359E-12</v>
       </c>
       <c r="AF113" s="4">
         <v>0</v>
@@ -6961,13 +6913,13 @@
         <v>47</v>
       </c>
       <c r="AC114" s="4">
-        <v>2.8258924815307844E-13</v>
+        <v>5.7233543143230926E-13</v>
       </c>
       <c r="AD114" s="4">
-        <v>3.2861162260364108E-13</v>
+        <v>6.9705379844210257E-13</v>
       </c>
       <c r="AE114" s="4">
-        <v>3.523341467236534E-9</v>
+        <v>3.0214370687911076E-12</v>
       </c>
       <c r="AF114" s="4">
         <v>0</v>
@@ -6987,13 +6939,13 @@
         <v>47</v>
       </c>
       <c r="AC115" s="4">
-        <v>2.8388955264512575E-13</v>
+        <v>5.7892483882273903E-13</v>
       </c>
       <c r="AD115" s="4">
-        <v>3.2863549589752781E-13</v>
+        <v>6.9203083094005981E-13</v>
       </c>
       <c r="AE115" s="4">
-        <v>3.5233415020743998E-9</v>
+        <v>3.0200972158629178E-12</v>
       </c>
       <c r="AF115" s="4">
         <v>0</v>
@@ -7013,13 +6965,13 @@
         <v>47</v>
       </c>
       <c r="AC116" s="4">
-        <v>1.4226805191446878E-13</v>
+        <v>3.0971752123958625E-13</v>
       </c>
       <c r="AD116" s="4">
-        <v>1.6709623537237576E-13</v>
+        <v>3.1500838370633137E-13</v>
       </c>
       <c r="AE116" s="4">
-        <v>1.757309875327877E-9</v>
+        <v>1.509772572832501E-12</v>
       </c>
       <c r="AF116" s="4">
         <v>0</v>
@@ -7039,13 +6991,13 @@
         <v>47</v>
       </c>
       <c r="AC117" s="4">
-        <v>1.5501935637921033E-13</v>
+        <v>3.3169299058804686E-13</v>
       </c>
       <c r="AD117" s="4">
-        <v>1.3791419985764594E-13</v>
+        <v>2.6967927440594468E-13</v>
       </c>
       <c r="AE117" s="4">
-        <v>1.7573099614808155E-9</v>
+        <v>1.5109273470888642E-12</v>
       </c>
       <c r="AF117" s="4">
         <v>0</v>
@@ -7065,13 +7017,13 @@
         <v>47</v>
       </c>
       <c r="AC118" s="4">
-        <v>1.3755326044672428E-13</v>
+        <v>2.6641292184932634E-13</v>
       </c>
       <c r="AD118" s="4">
-        <v>1.6993666706913535E-13</v>
+        <v>3.5729149448386495E-13</v>
       </c>
       <c r="AE118" s="4">
-        <v>1.7573099210035211E-9</v>
+        <v>1.5122562890290035E-12</v>
       </c>
       <c r="AF118" s="4">
         <v>0</v>
@@ -7091,13 +7043,13 @@
         <v>47</v>
       </c>
       <c r="AC119" s="4">
-        <v>2.7691359773792915E-13</v>
+        <v>5.6283712716437422E-13</v>
       </c>
       <c r="AD119" s="4">
-        <v>3.3484430211137717E-13</v>
+        <v>6.9261050858662357E-13</v>
       </c>
       <c r="AE119" s="4">
-        <v>3.5233409427892501E-9</v>
+        <v>3.0163656553125355E-12</v>
       </c>
       <c r="AF119" s="4">
         <v>0</v>
@@ -7117,13 +7069,13 @@
         <v>47</v>
       </c>
       <c r="AC120" s="4">
-        <v>2.9353296618164192E-13</v>
+        <v>5.9207118527206354E-13</v>
       </c>
       <c r="AD120" s="4">
-        <v>3.3374991779151781E-13</v>
+        <v>6.6710663109167675E-13</v>
       </c>
       <c r="AE120" s="4">
-        <v>3.5233422470380129E-9</v>
+        <v>3.0241769408472356E-12</v>
       </c>
       <c r="AF120" s="4">
         <v>0</v>
@@ -7140,16 +7092,16 @@
         <v>20</v>
       </c>
       <c r="AB121" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="AC121" s="4">
-        <v>3.6750554793778076E-11</v>
+        <v>4.5845953947165666E-13</v>
       </c>
       <c r="AD121" s="4">
-        <v>3.2569901301831017E-2</v>
+        <v>5.1205087836195496E-13</v>
       </c>
       <c r="AE121" s="4">
-        <v>2.4053032335297372E-2</v>
+        <v>2.3507405494801683E-12</v>
       </c>
       <c r="AF121" s="4">
         <v>0</v>
@@ -7169,13 +7121,13 @@
         <v>47</v>
       </c>
       <c r="AC122" s="4">
-        <v>2.8126081341704282E-13</v>
+        <v>5.3884778545101688E-13</v>
       </c>
       <c r="AD122" s="4">
-        <v>3.5900927045356664E-13</v>
+        <v>7.7098927300169089E-13</v>
       </c>
       <c r="AE122" s="4">
-        <v>3.5233428063917714E-9</v>
+        <v>2.9885422832241659E-12</v>
       </c>
       <c r="AF122" s="4">
         <v>0</v>
@@ -7195,13 +7147,13 @@
         <v>47</v>
       </c>
       <c r="AC123" s="4">
-        <v>2.8854643734433291E-13</v>
+        <v>5.9186088921293754E-13</v>
       </c>
       <c r="AD123" s="4">
-        <v>3.4604813435580032E-13</v>
+        <v>6.7393853441411086E-13</v>
       </c>
       <c r="AE123" s="4">
-        <v>3.5233422818779343E-9</v>
+        <v>3.0244290903440434E-12</v>
       </c>
       <c r="AF123" s="4">
         <v>0</v>
@@ -7221,13 +7173,13 @@
         <v>47</v>
       </c>
       <c r="AC124" s="4">
-        <v>2.838895526083776E-13</v>
+        <v>5.7892483881575969E-13</v>
       </c>
       <c r="AD124" s="4">
-        <v>3.2863549591109228E-13</v>
+        <v>6.9203083120957206E-13</v>
       </c>
       <c r="AE124" s="4">
-        <v>3.523341502074971E-9</v>
+        <v>3.020097066894462E-12</v>
       </c>
       <c r="AF124" s="4">
         <v>0</v>
@@ -7247,13 +7199,13 @@
         <v>47</v>
       </c>
       <c r="AC125" s="4">
-        <v>1.4275628176458729E-13</v>
+        <v>3.0640830780235642E-13</v>
       </c>
       <c r="AD125" s="4">
-        <v>1.6622176282655608E-13</v>
+        <v>3.1801902170422944E-13</v>
       </c>
       <c r="AE125" s="4">
-        <v>1.7573098783751425E-9</v>
+        <v>1.5100920609059851E-12</v>
       </c>
       <c r="AF125" s="4">
         <v>0</v>
@@ -7273,13 +7225,13 @@
         <v>47</v>
       </c>
       <c r="AC126" s="4">
-        <v>2.9148470926716024E-13</v>
+        <v>5.6684199151734398E-13</v>
       </c>
       <c r="AD126" s="4">
-        <v>3.5111045180322502E-13</v>
+        <v>6.9301000784065004E-13</v>
       </c>
       <c r="AE126" s="4">
-        <v>3.523340163073645E-9</v>
+        <v>3.0290509270064708E-12</v>
       </c>
       <c r="AF126" s="4">
         <v>0</v>
@@ -7299,13 +7251,13 @@
         <v>47</v>
       </c>
       <c r="AC127" s="4">
-        <v>1.4693446206937637E-13</v>
+        <v>2.8926022390908938E-13</v>
       </c>
       <c r="AD127" s="4">
-        <v>1.5204440064217321E-13</v>
+        <v>3.3108814320625264E-13</v>
       </c>
       <c r="AE127" s="4">
-        <v>1.7573098348817475E-9</v>
+        <v>1.5127688815247098E-12</v>
       </c>
       <c r="AF127" s="4">
         <v>0</v>
@@ -7325,13 +7277,13 @@
         <v>47</v>
       </c>
       <c r="AC128" s="4">
-        <v>2.9148470923811199E-13</v>
+        <v>5.6684199146399729E-13</v>
       </c>
       <c r="AD128" s="4">
-        <v>3.5111045182372359E-13</v>
+        <v>6.9301000762882718E-13</v>
       </c>
       <c r="AE128" s="4">
-        <v>3.5233401630736769E-9</v>
+        <v>3.0290507467079031E-12</v>
       </c>
       <c r="AF128" s="4">
         <v>0</v>
@@ -7345,13 +7297,13 @@
         <v>47</v>
       </c>
       <c r="AC129" s="4">
-        <v>1.469332253759232E-13</v>
+        <v>2.8669635781548424E-13</v>
       </c>
       <c r="AD129" s="4">
-        <v>1.5185825763533499E-13</v>
+        <v>3.3333675521622277E-13</v>
       </c>
       <c r="AE129" s="4">
-        <v>1.7573098379284299E-9</v>
+        <v>1.5127748710508748E-12</v>
       </c>
       <c r="AF129" s="4">
         <v>0</v>
@@ -7362,19 +7314,19 @@
         <v>29</v>
       </c>
       <c r="AB130" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AC130" s="2">
-        <v>1.6399783145972718E-11</v>
+        <v>8.6403726067198518E-3</v>
       </c>
       <c r="AD130" s="2">
-        <v>3.2569899555921183E-2</v>
+        <v>8.8468457941035722E-2</v>
       </c>
       <c r="AE130" s="2">
-        <v>1.4890809745823226E-2</v>
+        <v>0.10756327663572535</v>
       </c>
       <c r="AF130" s="2">
-        <v>9.5823835669194085E-2</v>
+        <v>9.582536307571321E-2</v>
       </c>
     </row>
     <row r="131" spans="23:32" x14ac:dyDescent="0.25">
@@ -7385,13 +7337,13 @@
         <v>47</v>
       </c>
       <c r="AC131" s="4">
-        <v>1.5762050178383011E-13</v>
+        <v>3.0074617482371048E-13</v>
       </c>
       <c r="AD131" s="4">
-        <v>1.6835813090474563E-13</v>
+        <v>3.2587396074885498E-13</v>
       </c>
       <c r="AE131" s="4">
-        <v>1.7573097518610337E-9</v>
+        <v>1.5116095479118569E-12</v>
       </c>
       <c r="AF131" s="4">
         <v>0</v>
@@ -7402,16 +7354,16 @@
         <v>31</v>
       </c>
       <c r="AB132" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="AC132" s="4">
-        <v>3.6006334790082729E-11</v>
+        <v>4.3367527829949899E-13</v>
       </c>
       <c r="AD132" s="4">
-        <v>3.2569901399287525E-2</v>
+        <v>5.3217884445879422E-13</v>
       </c>
       <c r="AE132" s="4">
-        <v>1.9271470531731592E-2</v>
+        <v>2.3469965672246501E-12</v>
       </c>
       <c r="AF132" s="4">
         <v>0</v>
@@ -7422,16 +7374,16 @@
         <v>46</v>
       </c>
       <c r="AB133" s="2" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="AD133" s="2" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="AE133" s="2" t="s">
         <v>49</v>
       </c>
       <c r="AF133" s="2" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
     </row>
     <row r="134" spans="23:32" x14ac:dyDescent="0.25">
@@ -7481,13 +7433,13 @@
         <v>47</v>
       </c>
       <c r="AC135" s="4">
-        <v>4.0779878254195337E-13</v>
+        <v>2.1804005701538104E-11</v>
       </c>
       <c r="AD135" s="4">
-        <v>5.3279820200682749E-13</v>
+        <v>2.7300360868960213E-11</v>
       </c>
       <c r="AE135" s="4">
-        <v>4.5248886640815415E-9</v>
+        <v>-3.8823363407072428E-10</v>
       </c>
       <c r="AF135" s="4">
         <v>0</v>
@@ -7513,13 +7465,13 @@
         <v>47</v>
       </c>
       <c r="AC136" s="4">
-        <v>4.0779878239857324E-13</v>
+        <v>2.1804005701669729E-11</v>
       </c>
       <c r="AD136" s="4">
-        <v>5.3279820209188492E-13</v>
+        <v>2.7300360868051555E-11</v>
       </c>
       <c r="AE136" s="4">
-        <v>4.5248886640816184E-9</v>
+        <v>4.7529962532904137E-11</v>
       </c>
       <c r="AF136" s="4">
         <v>0</v>
@@ -7545,13 +7497,13 @@
         <v>47</v>
       </c>
       <c r="AC137" s="4">
-        <v>4.0779878266856693E-13</v>
+        <v>2.1804005701625268E-11</v>
       </c>
       <c r="AD137" s="4">
-        <v>5.3279820214896038E-13</v>
+        <v>2.7300360867746635E-11</v>
       </c>
       <c r="AE137" s="4">
-        <v>4.5248886640819303E-9</v>
+        <v>4.752996253452355E-11</v>
       </c>
       <c r="AF137" s="4">
         <v>0</v>
@@ -7574,16 +7526,16 @@
         <v>4</v>
       </c>
       <c r="AB138" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="AC138" s="4">
-        <v>9.6100676596983549E-12</v>
+        <v>1.503013489772313E-11</v>
       </c>
       <c r="AD138" s="4">
-        <v>7.1756569031858244E-2</v>
+        <v>1.6784445450769664E-11</v>
       </c>
       <c r="AE138" s="4">
-        <v>0.17174425411692601</v>
+        <v>-2.7416309126338658E-11</v>
       </c>
       <c r="AF138" s="4">
         <v>0</v>
@@ -7606,16 +7558,16 @@
         <v>5</v>
       </c>
       <c r="AB139" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="AC139" s="4">
-        <v>1.902783668846528E-10</v>
+        <v>1.4872675218867126E-11</v>
       </c>
       <c r="AD139" s="4">
-        <v>9.3921976789868189E-2</v>
+        <v>1.6540727130642361E-11</v>
       </c>
       <c r="AE139" s="4">
-        <v>0.16473182019812277</v>
+        <v>2.7416309126338658E-11</v>
       </c>
       <c r="AF139" s="4">
         <v>0</v>
@@ -7629,13 +7581,13 @@
         <v>47</v>
       </c>
       <c r="AC140" s="4">
-        <v>2.2127341529500278E-13</v>
+        <v>2.0310189860196187E-13</v>
       </c>
       <c r="AD140" s="4">
-        <v>2.3591983063065394E-13</v>
+        <v>1.1597052897892479E-11</v>
       </c>
       <c r="AE140" s="4">
-        <v>2.2636177141181245E-9</v>
+        <v>2.4094367235916937E-11</v>
       </c>
       <c r="AF140" s="4">
         <v>0</v>
@@ -7655,13 +7607,13 @@
         <v>47</v>
       </c>
       <c r="AC141" s="4">
-        <v>4.1808459064079347E-13</v>
+        <v>2.1930588120800008E-11</v>
       </c>
       <c r="AD141" s="4">
-        <v>4.7349983095970328E-13</v>
+        <v>2.9004229217331866E-11</v>
       </c>
       <c r="AE141" s="4">
-        <v>4.5248885671535844E-9</v>
+        <v>4.7388409491646982E-11</v>
       </c>
       <c r="AF141" s="4">
         <v>0</v>
@@ -7681,13 +7633,13 @@
         <v>47</v>
       </c>
       <c r="AC142" s="4">
-        <v>3.7647907343110687E-13</v>
+        <v>2.0193628436716064E-11</v>
       </c>
       <c r="AD142" s="4">
-        <v>5.4028040874704645E-13</v>
+        <v>5.1720067893035741E-13</v>
       </c>
       <c r="AE142" s="4">
-        <v>4.5248885627330791E-9</v>
+        <v>4.5412151040653196E-11</v>
       </c>
       <c r="AF142" s="4">
         <v>0</v>
@@ -7707,13 +7659,13 @@
         <v>47</v>
       </c>
       <c r="AC143" s="4">
-        <v>2.1998277241882574E-13</v>
+        <v>1.1156292846037741E-11</v>
       </c>
       <c r="AD143" s="4">
-        <v>2.3109073000573436E-13</v>
+        <v>1.2878649188593665E-11</v>
       </c>
       <c r="AE143" s="4">
-        <v>2.2636176838284587E-9</v>
+        <v>2.2609951515614728E-11</v>
       </c>
       <c r="AF143" s="4">
         <v>0</v>
@@ -7733,13 +7685,13 @@
         <v>47</v>
       </c>
       <c r="AC144" s="4">
-        <v>3.9285950383496534E-13</v>
+        <v>2.146458371077646E-11</v>
       </c>
       <c r="AD144" s="4">
-        <v>5.1902635194681519E-13</v>
+        <v>4.7980098253874658E-13</v>
       </c>
       <c r="AE144" s="4">
-        <v>4.5248884658041806E-9</v>
+        <v>5.3300256200927501E-11</v>
       </c>
       <c r="AF144" s="4">
         <v>0</v>
@@ -7759,13 +7711,13 @@
         <v>47</v>
       </c>
       <c r="AC145" s="4">
-        <v>3.7647907330591825E-13</v>
+        <v>2.0193628437051382E-11</v>
       </c>
       <c r="AD145" s="4">
-        <v>5.4028040902658826E-13</v>
+        <v>5.1720067892073497E-13</v>
       </c>
       <c r="AE145" s="4">
-        <v>4.5248885627333065E-9</v>
+        <v>4.5405551347449796E-11</v>
       </c>
       <c r="AF145" s="4">
         <v>0</v>
@@ -7785,13 +7737,13 @@
         <v>47</v>
       </c>
       <c r="AC146" s="4">
-        <v>1.497480459158837E-13</v>
+        <v>7.8700231164587727E-12</v>
       </c>
       <c r="AD146" s="4">
-        <v>1.5435656413505798E-13</v>
+        <v>7.8740348300640963E-12</v>
       </c>
       <c r="AE146" s="4">
-        <v>1.5092007763151257E-9</v>
+        <v>1.347889950983752E-11</v>
       </c>
       <c r="AF146" s="4">
         <v>0</v>
@@ -7811,13 +7763,13 @@
         <v>47</v>
       </c>
       <c r="AC147" s="4">
-        <v>2.1998277244890312E-13</v>
+        <v>1.1156292845738819E-11</v>
       </c>
       <c r="AD147" s="4">
-        <v>2.3109073001613551E-13</v>
+        <v>1.2878649188742247E-11</v>
       </c>
       <c r="AE147" s="4">
-        <v>2.2636176838284711E-9</v>
+        <v>2.2611497104785035E-11</v>
       </c>
       <c r="AF147" s="4">
         <v>0</v>
@@ -7837,13 +7789,13 @@
         <v>47</v>
       </c>
       <c r="AC148" s="4">
-        <v>3.9285950389216359E-13</v>
+        <v>2.1464583710586829E-11</v>
       </c>
       <c r="AD148" s="4">
-        <v>5.1902635200686333E-13</v>
+        <v>4.7980098252611269E-13</v>
       </c>
       <c r="AE148" s="4">
-        <v>4.5248884658043204E-9</v>
+        <v>5.3300256201038136E-11</v>
       </c>
       <c r="AF148" s="4">
         <v>0</v>
@@ -7863,13 +7815,13 @@
         <v>47</v>
       </c>
       <c r="AC149" s="4">
-        <v>2.0957824016913513E-13</v>
+        <v>1.1483571085924907E-11</v>
       </c>
       <c r="AD149" s="4">
-        <v>2.543842676488758E-13</v>
+        <v>1.2635990976433043E-11</v>
       </c>
       <c r="AE149" s="4">
-        <v>2.2636176520268867E-9</v>
+        <v>2.3789508978853357E-11</v>
       </c>
       <c r="AF149" s="4">
         <v>0</v>
@@ -7889,13 +7841,13 @@
         <v>47</v>
       </c>
       <c r="AC150" s="4">
-        <v>1.6183486375114451E-13</v>
+        <v>8.5394519418196028E-12</v>
       </c>
       <c r="AD150" s="4">
-        <v>1.272192241966092E-13</v>
+        <v>8.0347797205048898E-12</v>
       </c>
       <c r="AE150" s="4">
-        <v>1.5092007388018244E-9</v>
+        <v>1.4369227647859175E-11</v>
       </c>
       <c r="AF150" s="4">
         <v>0</v>
@@ -7915,13 +7867,13 @@
         <v>47</v>
       </c>
       <c r="AC151" s="4">
-        <v>2.0957824009507015E-13</v>
+        <v>1.1483571085925113E-11</v>
       </c>
       <c r="AD151" s="4">
-        <v>2.5438426756268746E-13</v>
+        <v>1.2635990976385687E-11</v>
       </c>
       <c r="AE151" s="4">
-        <v>2.2636176520269074E-9</v>
+        <v>2.3789508978728246E-11</v>
       </c>
       <c r="AF151" s="4">
         <v>0</v>
@@ -7941,13 +7893,13 @@
         <v>47</v>
       </c>
       <c r="AC152" s="4">
-        <v>2.1128296136347361E-13</v>
+        <v>1.1537680434356622E-11</v>
       </c>
       <c r="AD152" s="4">
-        <v>2.4110781852402189E-13</v>
+        <v>1.2602168268443888E-11</v>
       </c>
       <c r="AE152" s="4">
-        <v>2.263617682316684E-9</v>
+        <v>2.2186935540953268E-11</v>
       </c>
       <c r="AF152" s="4">
         <v>0</v>
@@ -7967,13 +7919,13 @@
         <v>47</v>
       </c>
       <c r="AC153" s="4">
-        <v>2.2127341540216952E-13</v>
+        <v>2.0310189860220259E-13</v>
       </c>
       <c r="AD153" s="4">
-        <v>2.3591983068044795E-13</v>
+        <v>1.1597052897921999E-11</v>
       </c>
       <c r="AE153" s="4">
-        <v>2.2636177141181328E-9</v>
+        <v>2.4094367235944647E-11</v>
       </c>
       <c r="AF153" s="4">
         <v>0</v>
@@ -7993,13 +7945,13 @@
         <v>47</v>
       </c>
       <c r="AC154" s="4">
-        <v>2.2127341533594983E-13</v>
+        <v>2.0310189860225591E-13</v>
       </c>
       <c r="AD154" s="4">
-        <v>2.3591983057637021E-13</v>
+        <v>1.159705289811804E-11</v>
       </c>
       <c r="AE154" s="4">
-        <v>2.263617714118127E-9</v>
+        <v>2.4096500645797244E-11</v>
       </c>
       <c r="AF154" s="4">
         <v>0</v>
@@ -8019,13 +7971,13 @@
         <v>47</v>
       </c>
       <c r="AC155" s="4">
-        <v>4.1808459062401398E-13</v>
+        <v>2.1930588120881072E-11</v>
       </c>
       <c r="AD155" s="4">
-        <v>4.7349983094143099E-13</v>
+        <v>2.9004229217396799E-11</v>
       </c>
       <c r="AE155" s="4">
-        <v>4.524888567153232E-9</v>
+        <v>4.7388409491121515E-11</v>
       </c>
       <c r="AF155" s="4">
         <v>0</v>
@@ -8042,19 +7994,19 @@
         <v>22</v>
       </c>
       <c r="AB156" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AC156" s="2">
-        <v>1.7068417846679104E-11</v>
+        <v>1.7275313829232888E-2</v>
       </c>
       <c r="AD156" s="2">
-        <v>7.1756569188744054E-2</v>
+        <v>0.19490980067759361</v>
       </c>
       <c r="AE156" s="2">
-        <v>8.467608033491969E-2</v>
+        <v>0.25291360636576854</v>
       </c>
       <c r="AF156" s="2">
-        <v>0.22258289419960875</v>
+        <v>0.22258264681507245</v>
       </c>
     </row>
     <row r="157" spans="23:32" x14ac:dyDescent="0.25">
@@ -8071,13 +8023,13 @@
         <v>47</v>
       </c>
       <c r="AC157" s="4">
-        <v>2.1128296139339751E-13</v>
+        <v>1.1537680434282538E-11</v>
       </c>
       <c r="AD157" s="4">
-        <v>2.4110781850166055E-13</v>
+        <v>1.2602168268609118E-11</v>
       </c>
       <c r="AE157" s="4">
-        <v>2.2636176823166695E-9</v>
+        <v>2.2186935540926953E-11</v>
       </c>
       <c r="AF157" s="4">
         <v>0</v>
@@ -8097,13 +8049,13 @@
         <v>47</v>
       </c>
       <c r="AC158" s="4">
-        <v>1.42640724529238E-13</v>
+        <v>6.992406451243929E-12</v>
       </c>
       <c r="AD158" s="4">
-        <v>1.6532324499995109E-13</v>
+        <v>8.6613491146558366E-12</v>
       </c>
       <c r="AE158" s="4">
-        <v>1.5092007580344826E-9</v>
+        <v>1.4560210031914468E-11</v>
       </c>
       <c r="AF158" s="4">
         <v>0</v>
@@ -8123,13 +8075,13 @@
         <v>47</v>
       </c>
       <c r="AC159" s="4">
-        <v>2.0957824012538018E-13</v>
+        <v>1.1483571085912396E-11</v>
       </c>
       <c r="AD159" s="4">
-        <v>2.5438426757010947E-13</v>
+        <v>1.2635990976459926E-11</v>
       </c>
       <c r="AE159" s="4">
-        <v>2.2636176520269008E-9</v>
+        <v>2.3791526986108987E-11</v>
       </c>
       <c r="AF159" s="4">
         <v>0</v>
@@ -8149,13 +8101,13 @@
         <v>47</v>
       </c>
       <c r="AC160" s="4">
-        <v>3.9285950391071053E-13</v>
+        <v>2.1464583710497079E-11</v>
       </c>
       <c r="AD160" s="4">
-        <v>5.1902635181583631E-13</v>
+        <v>4.7980098252748271E-13</v>
       </c>
       <c r="AE160" s="4">
-        <v>4.5248884658041682E-9</v>
+        <v>5.328783283293145E-11</v>
       </c>
       <c r="AF160" s="4">
         <v>0</v>
@@ -8175,13 +8127,13 @@
         <v>47</v>
       </c>
       <c r="AC161" s="4">
-        <v>1.3607357269787223E-13</v>
+        <v>7.9124318640526951E-12</v>
       </c>
       <c r="AD161" s="4">
-        <v>1.7428166005870455E-13</v>
+        <v>7.8621511507050376E-12</v>
       </c>
       <c r="AE161" s="4">
-        <v>1.5092007570826097E-9</v>
+        <v>1.4389723278918856E-11</v>
       </c>
       <c r="AF161" s="4">
         <v>0</v>
@@ -8195,13 +8147,13 @@
         <v>47</v>
       </c>
       <c r="AC162" s="4">
-        <v>2.1998277242527031E-13</v>
+        <v>1.115629284610102E-11</v>
       </c>
       <c r="AD162" s="4">
-        <v>2.3109073006731246E-13</v>
+        <v>1.2878649188499573E-11</v>
       </c>
       <c r="AE162" s="4">
-        <v>2.2636176838284819E-9</v>
+        <v>2.2609951515599012E-11</v>
       </c>
       <c r="AF162" s="4">
         <v>0</v>
@@ -8215,13 +8167,13 @@
         <v>47</v>
       </c>
       <c r="AC163" s="4">
-        <v>2.1128296148186706E-13</v>
+        <v>1.153768043401236E-11</v>
       </c>
       <c r="AD163" s="4">
-        <v>2.4110781855465666E-13</v>
+        <v>1.2602168268628608E-11</v>
       </c>
       <c r="AE163" s="4">
-        <v>2.2636176823166828E-9</v>
+        <v>2.2188366635191479E-11</v>
       </c>
       <c r="AF163" s="4">
         <v>0</v>
@@ -8235,13 +8187,13 @@
         <v>47</v>
       </c>
       <c r="AC164" s="4">
-        <v>4.1808459057706502E-13</v>
+        <v>2.1930588121304588E-11</v>
       </c>
       <c r="AD164" s="4">
-        <v>4.73499831213945E-13</v>
+        <v>2.9004229217555204E-11</v>
       </c>
       <c r="AE164" s="4">
-        <v>4.5248885671535141E-9</v>
+        <v>4.7380662879275856E-11</v>
       </c>
       <c r="AF164" s="4">
         <v>0</v>
@@ -8255,13 +8207,13 @@
         <v>47</v>
       </c>
       <c r="AC165" s="4">
-        <v>3.7647907324391848E-13</v>
+        <v>2.0193628436868885E-11</v>
       </c>
       <c r="AD165" s="4">
-        <v>5.4028040907090059E-13</v>
+        <v>5.1720067894168591E-13</v>
       </c>
       <c r="AE165" s="4">
-        <v>4.5248885627331212E-9</v>
+        <v>4.5412151040874673E-11</v>
       </c>
       <c r="AF165" s="4">
         <v>0</v>
@@ -8272,16 +8224,16 @@
         <v>46</v>
       </c>
       <c r="AB166" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="AD166" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="AE166" s="2" t="s">
         <v>49</v>
       </c>
       <c r="AF166" s="2" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
     </row>
     <row r="167" spans="23:32" x14ac:dyDescent="0.25">
@@ -8328,16 +8280,16 @@
         <v>1</v>
       </c>
       <c r="AB168" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="AC168" s="4">
-        <v>6.1773591661796081E-12</v>
+        <v>1.5023598839548319E-12</v>
       </c>
       <c r="AD168" s="4">
-        <v>7.4421003819941314</v>
+        <v>1.7463826477660158E-12</v>
       </c>
       <c r="AE168" s="4">
-        <v>3.2070458520732092</v>
+        <v>3.1443446180171242E-11</v>
       </c>
       <c r="AF168" s="4">
         <v>0</v>
@@ -8360,16 +8312,16 @@
         <v>2</v>
       </c>
       <c r="AB169" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="AC169" s="4">
-        <v>7.4603231560262241E-12</v>
+        <v>1.4979167918005794E-12</v>
       </c>
       <c r="AD169" s="4">
-        <v>6.5998293972375937</v>
+        <v>1.7423063945654868E-12</v>
       </c>
       <c r="AE169" s="4">
-        <v>2.9609692234784775</v>
+        <v>3.1432953161081333E-11</v>
       </c>
       <c r="AF169" s="4">
         <v>0</v>
@@ -8392,16 +8344,16 @@
         <v>3</v>
       </c>
       <c r="AB170" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="AC170" s="4">
-        <v>7.0621108132588164E-12</v>
+        <v>1.4726825214575853E-12</v>
       </c>
       <c r="AD170" s="4">
-        <v>5.7331582098607612</v>
+        <v>1.7733491990624217E-12</v>
       </c>
       <c r="AE170" s="4">
-        <v>3.6488386911188671</v>
+        <v>3.1460445082329731E-11</v>
       </c>
       <c r="AF170" s="4">
         <v>0</v>
@@ -8424,16 +8376,16 @@
         <v>4</v>
       </c>
       <c r="AB171" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="AC171" s="4">
-        <v>2.3222969308715282E-10</v>
+        <v>1.4744531318396013E-12</v>
       </c>
       <c r="AD171" s="4">
-        <v>5.1020117427560683</v>
+        <v>1.7864958376903692E-12</v>
       </c>
       <c r="AE171" s="4">
-        <v>2.1677819672537906</v>
+        <v>3.1391858389952335E-11</v>
       </c>
       <c r="AF171" s="4">
         <v>0</v>
@@ -8456,16 +8408,16 @@
         <v>5</v>
       </c>
       <c r="AB172" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="AC172" s="4">
-        <v>5.8419651752718979E-11</v>
+        <v>1.4514380106240446E-12</v>
       </c>
       <c r="AD172" s="4">
-        <v>3.4947402726242416</v>
+        <v>1.7863224736562049E-12</v>
       </c>
       <c r="AE172" s="4">
-        <v>1.5949130592742757</v>
+        <v>3.135139521897333E-11</v>
       </c>
       <c r="AF172" s="4">
         <v>0</v>
@@ -8476,16 +8428,16 @@
         <v>6</v>
       </c>
       <c r="AB173" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="AC173" s="4">
-        <v>1.7285993953632587E-10</v>
+        <v>1.5060832375123344E-12</v>
       </c>
       <c r="AD173" s="4">
-        <v>5.7331582183365333</v>
+        <v>1.7173565029466539E-12</v>
       </c>
       <c r="AE173" s="4">
-        <v>1.7368755169319323</v>
+        <v>3.1487998659596878E-11</v>
       </c>
       <c r="AF173" s="4">
         <v>0</v>
@@ -8502,16 +8454,16 @@
         <v>7</v>
       </c>
       <c r="AB174" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="AC174" s="4">
-        <v>1.3600429580477162E-10</v>
+        <v>1.4739833642541925E-12</v>
       </c>
       <c r="AD174" s="4">
-        <v>5.102011756009591</v>
+        <v>1.7750451699001401E-12</v>
       </c>
       <c r="AE174" s="4">
-        <v>1.2665210152863229</v>
+        <v>3.1408814995515226E-11</v>
       </c>
       <c r="AF174" s="4">
         <v>0</v>
@@ -8528,16 +8480,16 @@
         <v>8</v>
       </c>
       <c r="AB175" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="AC175" s="4">
-        <v>1.1905269599869034E-10</v>
+        <v>1.4963595370047551E-12</v>
       </c>
       <c r="AD175" s="4">
-        <v>3.4947402719430771</v>
+        <v>1.7411425891593771E-12</v>
       </c>
       <c r="AE175" s="4">
-        <v>1.1164236331073774</v>
+        <v>3.1395687035046105E-11</v>
       </c>
       <c r="AF175" s="4">
         <v>0</v>
@@ -8554,16 +8506,16 @@
         <v>9</v>
       </c>
       <c r="AB176" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="AC176" s="4">
-        <v>6.1925550764406124E-11</v>
+        <v>1.479677142739597E-12</v>
       </c>
       <c r="AD176" s="4">
-        <v>5.1020117197094583</v>
+        <v>1.7653837222361965E-12</v>
       </c>
       <c r="AE176" s="4">
-        <v>0.96604602494237102</v>
+        <v>3.14637759215468E-11</v>
       </c>
       <c r="AF176" s="4">
         <v>0</v>
@@ -8580,16 +8532,16 @@
         <v>10</v>
       </c>
       <c r="AB177" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="AC177" s="4">
-        <v>5.6699189398286004E-11</v>
+        <v>1.48124714145363E-12</v>
       </c>
       <c r="AD177" s="4">
-        <v>3.4947402709340025</v>
+        <v>1.7524154061141819E-12</v>
       </c>
       <c r="AE177" s="4">
-        <v>0.70307711859199207</v>
+        <v>3.1344269109639553E-11</v>
       </c>
       <c r="AF177" s="4">
         <v>0</v>
@@ -8606,16 +8558,16 @@
         <v>11</v>
       </c>
       <c r="AB178" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="AC178" s="4">
-        <v>2.0149707505283913E-10</v>
+        <v>1.5081638173196592E-12</v>
       </c>
       <c r="AD178" s="4">
-        <v>3.4947402726525785</v>
+        <v>1.7198376710757574E-12</v>
       </c>
       <c r="AE178" s="4">
-        <v>1.0725551430550428</v>
+        <v>3.1378758022277544E-11</v>
       </c>
       <c r="AF178" s="4">
         <v>0</v>
@@ -8632,16 +8584,16 @@
         <v>12</v>
       </c>
       <c r="AB179" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="AC179" s="4">
-        <v>6.0486116981888587E-11</v>
+        <v>1.4722222192004445E-12</v>
       </c>
       <c r="AD179" s="4">
-        <v>5.7331581843344406</v>
+        <v>1.7703547293019672E-12</v>
       </c>
       <c r="AE179" s="4">
-        <v>1.1018431168152478</v>
+        <v>3.150505933040799E-11</v>
       </c>
       <c r="AF179" s="4">
         <v>0</v>
@@ -8658,16 +8610,16 @@
         <v>13</v>
       </c>
       <c r="AB180" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="AC180" s="4">
-        <v>6.1539838014849131E-11</v>
+        <v>1.4781503388505791E-12</v>
       </c>
       <c r="AD180" s="4">
-        <v>5.1020117151597661</v>
+        <v>1.7698760541456696E-12</v>
       </c>
       <c r="AE180" s="4">
-        <v>0.94235183951359847</v>
+        <v>3.145326933062913E-11</v>
       </c>
       <c r="AF180" s="4">
         <v>0</v>
@@ -8684,16 +8636,16 @@
         <v>14</v>
       </c>
       <c r="AB181" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="AC181" s="4">
-        <v>5.5459077168584099E-11</v>
+        <v>1.475507256605658E-12</v>
       </c>
       <c r="AD181" s="4">
-        <v>3.4947402707631512</v>
+        <v>1.7657777712539968E-12</v>
       </c>
       <c r="AE181" s="4">
-        <v>0.7358463741521698</v>
+        <v>3.1371606054875808E-11</v>
       </c>
       <c r="AF181" s="4">
         <v>0</v>
@@ -8710,16 +8662,16 @@
         <v>15</v>
       </c>
       <c r="AB182" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="AC182" s="4">
-        <v>5.745360545218477E-11</v>
+        <v>1.4921104391842335E-12</v>
       </c>
       <c r="AD182" s="4">
-        <v>3.4947402707778279</v>
+        <v>1.7505602501515864E-12</v>
       </c>
       <c r="AE182" s="4">
-        <v>0.59546498194038611</v>
+        <v>3.1399004186690098E-11</v>
       </c>
       <c r="AF182" s="4">
         <v>0</v>
@@ -8736,16 +8688,16 @@
         <v>16</v>
       </c>
       <c r="AB183" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AC183" s="2">
-        <v>1.7400963625547367E-10</v>
+        <v>1.1422009220565021</v>
       </c>
       <c r="AD183" s="2">
-        <v>3.4947402724400289</v>
+        <v>9.4926379450301823</v>
       </c>
       <c r="AE183" s="2">
-        <v>0.49226758238725093</v>
+        <v>16.03938453657636</v>
       </c>
       <c r="AF183" s="2">
         <v>14.175909555537293</v>
@@ -8762,16 +8714,16 @@
         <v>17</v>
       </c>
       <c r="AB184" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="AC184" s="4">
-        <v>5.8846345036857319E-11</v>
+        <v>1.4934436762243673E-12</v>
       </c>
       <c r="AD184" s="4">
-        <v>3.4947402709566959</v>
+        <v>1.7443936678250508E-12</v>
       </c>
       <c r="AE184" s="4">
-        <v>0.57346347532245712</v>
+        <v>3.1371619490801104E-11</v>
       </c>
       <c r="AF184" s="4">
         <v>0</v>
@@ -8788,16 +8740,16 @@
         <v>18</v>
       </c>
       <c r="AB185" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="AC185" s="4">
-        <v>6.165175580935213E-11</v>
+        <v>1.5126577446778174E-12</v>
       </c>
       <c r="AD185" s="4">
-        <v>3.4947402706216475</v>
+        <v>1.7162083832839112E-12</v>
       </c>
       <c r="AE185" s="4">
-        <v>0.78722370408347297</v>
+        <v>3.1395700483772848E-11</v>
       </c>
       <c r="AF185" s="4">
         <v>0</v>
@@ -8814,16 +8766,16 @@
         <v>19</v>
       </c>
       <c r="AB186" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="AC186" s="4">
-        <v>1.7732183553177701E-10</v>
+        <v>1.5191858942962764E-12</v>
       </c>
       <c r="AD186" s="4">
-        <v>6.5998294020939632</v>
+        <v>1.7024352734790756E-12</v>
       </c>
       <c r="AE186" s="4">
-        <v>1.5647323489765257</v>
+        <v>3.1460458580906927E-11</v>
       </c>
       <c r="AF186" s="4">
         <v>0</v>
@@ -8840,16 +8792,16 @@
         <v>20</v>
       </c>
       <c r="AB187" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="AC187" s="4">
-        <v>1.5338666812200996E-10</v>
+        <v>1.5002938156792501E-12</v>
       </c>
       <c r="AD187" s="4">
-        <v>5.7331582155250613</v>
+        <v>1.7257754067896028E-12</v>
       </c>
       <c r="AE187" s="4">
-        <v>1.6616042969292739</v>
+        <v>3.1477475888446986E-11</v>
       </c>
       <c r="AF187" s="4">
         <v>0</v>
@@ -8866,16 +8818,16 @@
         <v>21</v>
       </c>
       <c r="AB188" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="AC188" s="4">
-        <v>1.1689140314326692E-10</v>
+        <v>1.4607612193746902E-12</v>
       </c>
       <c r="AD188" s="4">
-        <v>5.1020117516467058</v>
+        <v>1.7950437172442743E-12</v>
       </c>
       <c r="AE188" s="4">
-        <v>1.3748966417902173</v>
+        <v>3.1436264692411499E-11</v>
       </c>
       <c r="AF188" s="4">
         <v>0</v>
@@ -8892,16 +8844,16 @@
         <v>22</v>
       </c>
       <c r="AB189" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="AC189" s="4">
-        <v>8.6018023510144598E-11</v>
+        <v>1.4907247224859689E-12</v>
       </c>
       <c r="AD189" s="4">
-        <v>3.4947402713248068</v>
+        <v>1.724774457363371E-12</v>
       </c>
       <c r="AE189" s="4">
-        <v>0.9247754988410084</v>
+        <v>3.1327382099869171E-11</v>
       </c>
       <c r="AF189" s="4">
         <v>0</v>
@@ -8918,16 +8870,16 @@
         <v>23</v>
       </c>
       <c r="AB190" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="AC190" s="4">
-        <v>5.8862992207546762E-11</v>
+        <v>1.5057582447728862E-12</v>
       </c>
       <c r="AD190" s="4">
-        <v>3.4947402702689794</v>
+        <v>1.7293802829064138E-12</v>
       </c>
       <c r="AE190" s="4">
-        <v>0.82853057866010371</v>
+        <v>3.1423127254046536E-11</v>
       </c>
       <c r="AF190" s="4">
         <v>0</v>
@@ -8944,16 +8896,16 @@
         <v>24</v>
       </c>
       <c r="AB191" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="AC191" s="4">
-        <v>5.366716252966105E-11</v>
+        <v>1.4297640709247223E-12</v>
       </c>
       <c r="AD191" s="4">
-        <v>5.1020117139808017</v>
+        <v>1.8261633139850007E-12</v>
       </c>
       <c r="AE191" s="4">
-        <v>0.7266747181418558</v>
+        <v>3.1480810355570275E-11</v>
       </c>
       <c r="AF191" s="4">
         <v>0</v>
@@ -8970,16 +8922,16 @@
         <v>25</v>
       </c>
       <c r="AB192" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="AC192" s="4">
-        <v>5.7223150621048968E-11</v>
+        <v>1.4905296801225315E-12</v>
       </c>
       <c r="AD192" s="4">
-        <v>3.4947402702290846</v>
+        <v>1.7530287314548489E-12</v>
       </c>
       <c r="AE192" s="4">
-        <v>0.58625398771132264</v>
+        <v>3.1388540801636802E-11</v>
       </c>
       <c r="AF192" s="4">
         <v>0</v>
@@ -8996,16 +8948,16 @@
         <v>26</v>
       </c>
       <c r="AB193" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="AC193" s="4">
-        <v>5.6865841217514848E-11</v>
+        <v>1.4848104571195248E-12</v>
       </c>
       <c r="AD193" s="4">
-        <v>3.4947402709202331</v>
+        <v>1.7493975267159159E-12</v>
       </c>
       <c r="AE193" s="4">
-        <v>0.71613866076814614</v>
+        <v>3.1354702993953498E-11</v>
       </c>
       <c r="AF193" s="4">
         <v>0</v>
@@ -9022,16 +8974,16 @@
         <v>27</v>
       </c>
       <c r="AB194" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="AC194" s="4">
-        <v>5.9341239278620406E-11</v>
+        <v>1.4981791729065944E-12</v>
       </c>
       <c r="AD194" s="4">
-        <v>3.4947402702420876</v>
+        <v>1.7283997936745277E-12</v>
       </c>
       <c r="AE194" s="4">
-        <v>0.64471301557045368</v>
+        <v>3.1440117688005128E-11</v>
       </c>
       <c r="AF194" s="4">
         <v>0</v>
@@ -9042,16 +8994,16 @@
         <v>28</v>
       </c>
       <c r="AB195" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="AC195" s="4">
-        <v>6.2315479961736253E-11</v>
+        <v>1.4883914665764021E-12</v>
       </c>
       <c r="AD195" s="4">
-        <v>5.1020117412367751</v>
+        <v>1.7566016852645159E-12</v>
       </c>
       <c r="AE195" s="4">
-        <v>0.91023486755376015</v>
+        <v>3.1436278178147957E-11</v>
       </c>
       <c r="AF195" s="4">
         <v>0</v>
@@ -9062,16 +9014,16 @@
         <v>29</v>
       </c>
       <c r="AB196" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="AC196" s="4">
-        <v>5.8081804313721278E-11</v>
+        <v>1.5033788495268124E-12</v>
       </c>
       <c r="AD196" s="4">
-        <v>3.4947402702828474</v>
+        <v>1.7327867295605784E-12</v>
       </c>
       <c r="AE196" s="4">
-        <v>0.81109809015840506</v>
+        <v>3.1412647788504524E-11</v>
       </c>
       <c r="AF196" s="4">
         <v>0</v>
@@ -9082,16 +9034,16 @@
         <v>30</v>
       </c>
       <c r="AB197" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="AC197" s="4">
-        <v>1.5527863194581604E-10</v>
+        <v>1.4777603547088538E-12</v>
       </c>
       <c r="AD197" s="4">
-        <v>5.1020117570273529</v>
+        <v>1.7701520913198426E-12</v>
       </c>
       <c r="AE197" s="4">
-        <v>1.3087555671701236</v>
+        <v>3.1419291902914753E-11</v>
       </c>
       <c r="AF197" s="4">
         <v>0</v>
@@ -9102,16 +9054,16 @@
         <v>31</v>
       </c>
       <c r="AB198" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="AC198" s="4">
-        <v>1.3820267853996474E-10</v>
+        <v>1.512219651997806E-12</v>
       </c>
       <c r="AD198" s="4">
-        <v>3.4947402723537544</v>
+        <v>1.714908451589461E-12</v>
       </c>
       <c r="AE198" s="4">
-        <v>1.0441046782396344</v>
+        <v>3.1368308125453414E-11</v>
       </c>
       <c r="AF198" s="4">
         <v>0</v>
@@ -9122,16 +9074,16 @@
         <v>46</v>
       </c>
       <c r="AB199" s="2" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="AD199" s="2" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="AE199" s="2" t="s">
         <v>49</v>
       </c>
       <c r="AF199" s="2" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
     </row>
     <row r="200" spans="23:32" x14ac:dyDescent="0.25">
@@ -9178,16 +9130,16 @@
         <v>1</v>
       </c>
       <c r="AB201" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="AC201" s="4">
-        <v>1.6416819922269559E-10</v>
+        <v>4.497469529898715E-12</v>
       </c>
       <c r="AD201" s="4">
-        <v>17.452954742375741</v>
+        <v>4.8725273173787287E-12</v>
       </c>
       <c r="AE201" s="4">
-        <v>30.943510246060971</v>
+        <v>-2.8521209616525255E-12</v>
       </c>
       <c r="AF201" s="4">
         <v>0</v>
@@ -9213,13 +9165,13 @@
         <v>47</v>
       </c>
       <c r="AC202" s="4">
-        <v>1.7819393787373167E-12</v>
+        <v>6.0845750352515469E-12</v>
       </c>
       <c r="AD202" s="4">
-        <v>2.2955479674977181E-12</v>
+        <v>7.627206491813371E-12</v>
       </c>
       <c r="AE202" s="4">
-        <v>4.3119272273433071E-9</v>
+        <v>-4.1502837841501579E-11</v>
       </c>
       <c r="AF202" s="4">
         <v>0</v>
@@ -9242,16 +9194,16 @@
         <v>3</v>
       </c>
       <c r="AB203" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="AC203" s="4">
-        <v>1.3969812181565291E-11</v>
+        <v>4.4264834884447977E-12</v>
       </c>
       <c r="AD203" s="4">
-        <v>22.437187659390606</v>
+        <v>4.8000906505114411E-12</v>
       </c>
       <c r="AE203" s="4">
-        <v>38.580054840805964</v>
+        <v>2.8521209616525255E-12</v>
       </c>
       <c r="AF203" s="4">
         <v>0</v>
@@ -9277,13 +9229,13 @@
         <v>47</v>
       </c>
       <c r="AC204" s="4">
-        <v>1.7819393787101878E-12</v>
+        <v>6.0845750352020711E-12</v>
       </c>
       <c r="AD204" s="4">
-        <v>2.2955479674780726E-12</v>
+        <v>7.6272064917052172E-12</v>
       </c>
       <c r="AE204" s="4">
-        <v>4.3119272273141597E-9</v>
+        <v>4.9691797381315252E-12</v>
       </c>
       <c r="AF204" s="4">
         <v>0</v>
@@ -9309,13 +9261,13 @@
         <v>47</v>
       </c>
       <c r="AC205" s="4">
-        <v>1.7819393787308156E-12</v>
+        <v>6.0845750352278171E-12</v>
       </c>
       <c r="AD205" s="4">
-        <v>2.2955479675059641E-12</v>
+        <v>7.6272064918074257E-12</v>
       </c>
       <c r="AE205" s="4">
-        <v>4.3119272273317191E-9</v>
+        <v>4.9691797381539625E-12</v>
       </c>
       <c r="AF205" s="4">
         <v>0</v>
@@ -9326,19 +9278,19 @@
         <v>6</v>
       </c>
       <c r="AB206" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AC206" s="2">
-        <v>3.206125918176185E-11</v>
+        <v>2.7913503919038027</v>
       </c>
       <c r="AD206" s="2">
-        <v>17.452954751548425</v>
+        <v>47.40683647504185</v>
       </c>
       <c r="AE206" s="2">
-        <v>13.991645063765963</v>
+        <v>48.753332400007174</v>
       </c>
       <c r="AF206" s="2">
-        <v>47.042442677381963</v>
+        <v>47.042138219561956</v>
       </c>
     </row>
     <row r="207" spans="23:32" x14ac:dyDescent="0.25">
@@ -9355,13 +9307,13 @@
         <v>47</v>
       </c>
       <c r="AC207" s="4">
-        <v>9.5655084188197201E-13</v>
+        <v>3.2178018164033604E-12</v>
       </c>
       <c r="AD207" s="4">
-        <v>1.0487580456694552E-12</v>
+        <v>3.5513455775642297E-12</v>
       </c>
       <c r="AE207" s="4">
-        <v>2.3358708555897623E-9</v>
+        <v>2.4982886658791635E-12</v>
       </c>
       <c r="AF207" s="4">
         <v>0</v>
@@ -9381,13 +9333,13 @@
         <v>47</v>
       </c>
       <c r="AC208" s="4">
-        <v>1.7551944784787675E-12</v>
+        <v>6.3713789546837382E-12</v>
       </c>
       <c r="AD208" s="4">
-        <v>2.2762032228959423E-12</v>
+        <v>7.4693113557250909E-12</v>
       </c>
       <c r="AE208" s="4">
-        <v>4.3119272244860292E-9</v>
+        <v>4.9646140381339981E-12</v>
       </c>
       <c r="AF208" s="4">
         <v>0</v>
@@ -9407,13 +9359,13 @@
         <v>47</v>
       </c>
       <c r="AC209" s="4">
-        <v>1.743231197010572E-12</v>
+        <v>6.307955880536028E-12</v>
       </c>
       <c r="AD209" s="4">
-        <v>2.2366849196431543E-12</v>
+        <v>7.4756242466122839E-12</v>
       </c>
       <c r="AE209" s="4">
-        <v>4.3119272221905244E-9</v>
+        <v>4.9683620974948234E-12</v>
       </c>
       <c r="AF209" s="4">
         <v>0</v>
@@ -9433,13 +9385,13 @@
         <v>47</v>
       </c>
       <c r="AC210" s="4">
-        <v>6.5064650378463631E-13</v>
+        <v>2.2390207334916935E-12</v>
       </c>
       <c r="AD210" s="4">
-        <v>6.6664770526473609E-13</v>
+        <v>2.3951796755129131E-12</v>
       </c>
       <c r="AE210" s="4">
-        <v>1.5776330727050422E-9</v>
+        <v>1.6553853479980783E-12</v>
       </c>
       <c r="AF210" s="4">
         <v>0</v>
@@ -9459,13 +9411,13 @@
         <v>47</v>
       </c>
       <c r="AC211" s="4">
-        <v>1.8074023155419558E-12</v>
+        <v>6.2137023918714918E-12</v>
       </c>
       <c r="AD211" s="4">
-        <v>2.1823171123111058E-12</v>
+        <v>7.6508762036426474E-12</v>
       </c>
       <c r="AE211" s="4">
-        <v>4.3119272251196256E-9</v>
+        <v>4.9729135089657865E-12</v>
       </c>
       <c r="AF211" s="4">
         <v>0</v>
@@ -9485,13 +9437,13 @@
         <v>47</v>
       </c>
       <c r="AC212" s="4">
-        <v>1.743231196942782E-12</v>
+        <v>6.3079558806049425E-12</v>
       </c>
       <c r="AD212" s="4">
-        <v>2.2366849197466811E-12</v>
+        <v>7.4756242466867301E-12</v>
       </c>
       <c r="AE212" s="4">
-        <v>4.3119272222174277E-9</v>
+        <v>4.9649649760308309E-12</v>
       </c>
       <c r="AF212" s="4">
         <v>0</v>
@@ -9511,13 +9463,13 @@
         <v>47</v>
       </c>
       <c r="AC213" s="4">
-        <v>9.4837597670021577E-13</v>
+        <v>3.2099636847013038E-12</v>
       </c>
       <c r="AD213" s="4">
-        <v>1.04864183779406E-12</v>
+        <v>3.5454403213655175E-12</v>
       </c>
       <c r="AE213" s="4">
-        <v>2.3358708553869091E-9</v>
+        <v>2.4972237586550035E-12</v>
       </c>
       <c r="AF213" s="4">
         <v>0</v>
@@ -9537,13 +9489,13 @@
         <v>47</v>
       </c>
       <c r="AC214" s="4">
-        <v>9.4837597670950863E-13</v>
+        <v>3.2099636846978141E-12</v>
       </c>
       <c r="AD214" s="4">
-        <v>1.048641837784108E-12</v>
+        <v>3.5454403213478624E-12</v>
       </c>
       <c r="AE214" s="4">
-        <v>2.3358708553895445E-9</v>
+        <v>2.4984863893432994E-12</v>
       </c>
       <c r="AF214" s="4">
         <v>0</v>
@@ -9563,13 +9515,13 @@
         <v>47</v>
       </c>
       <c r="AC215" s="4">
-        <v>9.2991564769821975E-13</v>
+        <v>3.2905276264056763E-12</v>
       </c>
       <c r="AD215" s="4">
-        <v>1.0990893045395437E-12</v>
+        <v>3.5562142283508439E-12</v>
       </c>
       <c r="AE215" s="4">
-        <v>2.3358708551734663E-9</v>
+        <v>2.4993829569082105E-12</v>
       </c>
       <c r="AF215" s="4">
         <v>0</v>
@@ -9589,13 +9541,13 @@
         <v>47</v>
       </c>
       <c r="AC216" s="4">
-        <v>6.7040907618363774E-13</v>
+        <v>2.107311548870175E-12</v>
       </c>
       <c r="AD216" s="4">
-        <v>2.1243062678878301E-13</v>
+        <v>2.4773850251850487E-12</v>
       </c>
       <c r="AE216" s="4">
-        <v>1.5776330726046128E-9</v>
+        <v>1.6553843287781033E-12</v>
       </c>
       <c r="AF216" s="4">
         <v>0</v>
@@ -9615,13 +9567,13 @@
         <v>47</v>
       </c>
       <c r="AC217" s="4">
-        <v>6.295908471791235E-13</v>
+        <v>2.1502944964683385E-12</v>
       </c>
       <c r="AD217" s="4">
-        <v>7.4139485101920719E-13</v>
+        <v>2.3290255028597731E-12</v>
       </c>
       <c r="AE217" s="4">
-        <v>1.577633072656411E-9</v>
+        <v>1.6558174751670071E-12</v>
       </c>
       <c r="AF217" s="4">
         <v>0</v>
@@ -9641,13 +9593,13 @@
         <v>47</v>
       </c>
       <c r="AC218" s="4">
-        <v>9.5670018905555783E-13</v>
+        <v>3.1830681335107727E-12</v>
       </c>
       <c r="AD218" s="4">
-        <v>1.0388979126944734E-12</v>
+        <v>3.5785498247689268E-12</v>
       </c>
       <c r="AE218" s="4">
-        <v>2.3358708553724793E-9</v>
+        <v>2.4991868062462219E-12</v>
       </c>
       <c r="AF218" s="4">
         <v>0</v>
@@ -9667,13 +9619,13 @@
         <v>47</v>
       </c>
       <c r="AC219" s="4">
-        <v>1.8074023155426149E-12</v>
+        <v>6.2137023918826071E-12</v>
       </c>
       <c r="AD219" s="4">
-        <v>2.1823171123572987E-12</v>
+        <v>7.6508762036543313E-12</v>
       </c>
       <c r="AE219" s="4">
-        <v>4.3119272250918654E-9</v>
+        <v>4.9694850344182777E-12</v>
       </c>
       <c r="AF219" s="4">
         <v>0</v>
@@ -9693,13 +9645,13 @@
         <v>47</v>
       </c>
       <c r="AC220" s="4">
-        <v>1.7551944784770485E-12</v>
+        <v>6.3713789547341445E-12</v>
       </c>
       <c r="AD220" s="4">
-        <v>2.2762032229257466E-12</v>
+        <v>7.4693113557421515E-12</v>
       </c>
       <c r="AE220" s="4">
-        <v>4.3119272244824608E-9</v>
+        <v>4.9612041070421846E-12</v>
       </c>
       <c r="AF220" s="4">
         <v>0</v>
@@ -9719,13 +9671,13 @@
         <v>47</v>
       </c>
       <c r="AC221" s="4">
-        <v>1.7551944784580234E-12</v>
+        <v>6.37137895467588E-12</v>
       </c>
       <c r="AD221" s="4">
-        <v>2.2762032228666291E-12</v>
+        <v>7.4693113556548839E-12</v>
       </c>
       <c r="AE221" s="4">
-        <v>4.3119272244872146E-9</v>
+        <v>4.9646140381127499E-12</v>
       </c>
       <c r="AF221" s="4">
         <v>0</v>
@@ -9745,13 +9697,13 @@
         <v>47</v>
       </c>
       <c r="AC222" s="4">
-        <v>9.5655084185849429E-13</v>
+        <v>3.2178018164013442E-12</v>
       </c>
       <c r="AD222" s="4">
-        <v>1.0487580456764216E-12</v>
+        <v>3.5513455775463161E-12</v>
       </c>
       <c r="AE222" s="4">
-        <v>2.3358708555920495E-9</v>
+        <v>2.4995530585206873E-12</v>
       </c>
       <c r="AF222" s="4">
         <v>0</v>
@@ -9771,13 +9723,13 @@
         <v>47</v>
       </c>
       <c r="AC223" s="4">
-        <v>1.7432311970179262E-12</v>
+        <v>6.3079558805664269E-12</v>
       </c>
       <c r="AD223" s="4">
-        <v>2.2366849196862452E-12</v>
+        <v>7.4756242466809915E-12</v>
       </c>
       <c r="AE223" s="4">
-        <v>4.3119272221892795E-9</v>
+        <v>4.9683620975160199E-12</v>
       </c>
       <c r="AF223" s="4">
         <v>0</v>
@@ -9797,13 +9749,13 @@
         <v>47</v>
       </c>
       <c r="AC224" s="4">
-        <v>9.2991564771136417E-13</v>
+        <v>3.2905276264019023E-12</v>
       </c>
       <c r="AD224" s="4">
-        <v>1.099089304473408E-12</v>
+        <v>3.5562142283776239E-12</v>
       </c>
       <c r="AE224" s="4">
-        <v>2.3358708551713483E-9</v>
+        <v>2.4981231508349113E-12</v>
       </c>
       <c r="AF224" s="4">
         <v>0</v>
@@ -9823,13 +9775,13 @@
         <v>47</v>
       </c>
       <c r="AC225" s="4">
-        <v>6.2826359095439352E-13</v>
+        <v>2.1596686069833994E-12</v>
       </c>
       <c r="AD225" s="4">
-        <v>7.4054368258050941E-13</v>
+        <v>2.3177318400909247E-12</v>
       </c>
       <c r="AE225" s="4">
-        <v>1.5776330726534576E-9</v>
+        <v>1.654951808826157E-12</v>
       </c>
       <c r="AF225" s="4">
         <v>0</v>
@@ -9849,13 +9801,13 @@
         <v>47</v>
       </c>
       <c r="AC226" s="4">
-        <v>9.5670018906539999E-13</v>
+        <v>3.183068133495263E-12</v>
       </c>
       <c r="AD226" s="4">
-        <v>1.0388979127258352E-12</v>
+        <v>3.5785498247639896E-12</v>
       </c>
       <c r="AE226" s="4">
-        <v>2.3358708553753559E-9</v>
+        <v>2.5004483934996575E-12</v>
       </c>
       <c r="AF226" s="4">
         <v>0</v>
@@ -9875,13 +9827,13 @@
         <v>47</v>
       </c>
       <c r="AC227" s="4">
-        <v>9.2991564771100227E-13</v>
+        <v>3.2905276264114407E-12</v>
       </c>
       <c r="AD227" s="4">
-        <v>1.0990893044866171E-12</v>
+        <v>3.5562142283694296E-12</v>
       </c>
       <c r="AE227" s="4">
-        <v>2.3358708551709215E-9</v>
+        <v>2.4981231508400811E-12</v>
       </c>
       <c r="AF227" s="4">
         <v>0</v>
@@ -9895,13 +9847,13 @@
         <v>47</v>
       </c>
       <c r="AC228" s="4">
-        <v>9.5670018905594557E-13</v>
+        <v>3.1830681334955474E-12</v>
       </c>
       <c r="AD228" s="4">
-        <v>1.0388979127034755E-12</v>
+        <v>3.5785498247869439E-12</v>
       </c>
       <c r="AE228" s="4">
-        <v>2.3358708553739922E-9</v>
+        <v>2.4991868062410779E-12</v>
       </c>
       <c r="AF228" s="4">
         <v>0</v>
@@ -9915,13 +9867,13 @@
         <v>47</v>
       </c>
       <c r="AC229" s="4">
-        <v>9.483759766988716E-13</v>
+        <v>3.2099636847134271E-12</v>
       </c>
       <c r="AD229" s="4">
-        <v>1.0486418377929032E-12</v>
+        <v>3.5454403213516364E-12</v>
       </c>
       <c r="AE229" s="4">
-        <v>2.3358708553866531E-9</v>
+        <v>2.4972237586601734E-12</v>
       </c>
       <c r="AF229" s="4">
         <v>0</v>
@@ -9935,13 +9887,13 @@
         <v>47</v>
       </c>
       <c r="AC230" s="4">
-        <v>1.8074023155168172E-12</v>
+        <v>6.2137023918081091E-12</v>
       </c>
       <c r="AD230" s="4">
-        <v>2.1823171122731331E-12</v>
+        <v>7.6508762035794715E-12</v>
       </c>
       <c r="AE230" s="4">
-        <v>4.3119272251312045E-9</v>
+        <v>4.972913508945107E-12</v>
       </c>
       <c r="AF230" s="4">
         <v>0</v>
@@ -9955,13 +9907,13 @@
         <v>47</v>
       </c>
       <c r="AC231" s="4">
-        <v>9.5655084188450525E-13</v>
+        <v>3.2178018164180687E-12</v>
       </c>
       <c r="AD231" s="4">
-        <v>1.04875804566846E-12</v>
+        <v>3.5513455775489268E-12</v>
       </c>
       <c r="AE231" s="4">
-        <v>2.3358708555883954E-9</v>
+        <v>2.4982886658843076E-12</v>
       </c>
       <c r="AF231" s="4">
         <v>0</v>
@@ -9972,16 +9924,16 @@
         <v>46</v>
       </c>
       <c r="AB232" s="2" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="AD232" s="2" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="AE232" s="2" t="s">
         <v>49</v>
       </c>
       <c r="AF232" s="2" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
